--- a/Outputs/3. Prosumer percentage/Grid Search/Output Files/10/Output_3_21.xlsx
+++ b/Outputs/3. Prosumer percentage/Grid Search/Output Files/10/Output_3_21.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.01</v>
       </c>
     </row>
     <row r="4">
@@ -503,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>809286.9183466258</v>
+        <v>677389.1570770228</v>
       </c>
     </row>
     <row r="7">
@@ -513,7 +513,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>648595.3595509824</v>
+        <v>648595.3595509828</v>
       </c>
     </row>
     <row r="8">
@@ -543,7 +543,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>4777500.005656535</v>
+        <v>4777500.005656534</v>
       </c>
     </row>
     <row r="11">
@@ -1378,22 +1378,22 @@
         <v>0</v>
       </c>
       <c r="E11" t="n">
-        <v>0</v>
+        <v>74.64113527061548</v>
       </c>
       <c r="F11" t="n">
-        <v>0</v>
+        <v>74.64113527061548</v>
       </c>
       <c r="G11" t="n">
-        <v>0</v>
+        <v>60.30119012769043</v>
       </c>
       <c r="H11" t="n">
         <v>0</v>
       </c>
       <c r="I11" t="n">
-        <v>71.36968662333125</v>
+        <v>0</v>
       </c>
       <c r="J11" t="n">
-        <v>63.57263877497482</v>
+        <v>0</v>
       </c>
       <c r="K11" t="n">
         <v>1.938787537155832</v>
@@ -1423,10 +1423,10 @@
         <v>0</v>
       </c>
       <c r="T11" t="n">
-        <v>74.64113527061559</v>
+        <v>0</v>
       </c>
       <c r="U11" t="n">
-        <v>74.64113527061559</v>
+        <v>0</v>
       </c>
       <c r="V11" t="n">
         <v>0</v>
@@ -1438,7 +1438,7 @@
         <v>0</v>
       </c>
       <c r="Y11" t="n">
-        <v>0</v>
+        <v>74.64113527061548</v>
       </c>
     </row>
     <row r="12">
@@ -1448,10 +1448,10 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>0</v>
+        <v>74.64113527061548</v>
       </c>
       <c r="C12" t="n">
-        <v>0</v>
+        <v>74.64113527061548</v>
       </c>
       <c r="D12" t="n">
         <v>0</v>
@@ -1460,16 +1460,16 @@
         <v>0</v>
       </c>
       <c r="F12" t="n">
-        <v>65.7439119463582</v>
+        <v>0</v>
       </c>
       <c r="G12" t="n">
-        <v>74.64113527061559</v>
+        <v>0</v>
       </c>
       <c r="H12" t="n">
-        <v>74.64113527061559</v>
+        <v>0</v>
       </c>
       <c r="I12" t="n">
-        <v>74.64113527061559</v>
+        <v>0</v>
       </c>
       <c r="J12" t="n">
         <v>0</v>
@@ -1493,7 +1493,7 @@
         <v>0</v>
       </c>
       <c r="Q12" t="n">
-        <v>0</v>
+        <v>23.56997936457755</v>
       </c>
       <c r="R12" t="n">
         <v>0</v>
@@ -1502,7 +1502,7 @@
         <v>0</v>
       </c>
       <c r="T12" t="n">
-        <v>0</v>
+        <v>74.64113527061548</v>
       </c>
       <c r="U12" t="n">
         <v>0</v>
@@ -1517,7 +1517,7 @@
         <v>0</v>
       </c>
       <c r="Y12" t="n">
-        <v>0</v>
+        <v>42.17393258178056</v>
       </c>
     </row>
     <row r="13">
@@ -1606,10 +1606,10 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>74.64113527061559</v>
+        <v>74.64113527061548</v>
       </c>
       <c r="C14" t="n">
-        <v>62.23997766484631</v>
+        <v>0</v>
       </c>
       <c r="D14" t="n">
         <v>0</v>
@@ -1624,7 +1624,7 @@
         <v>0</v>
       </c>
       <c r="H14" t="n">
-        <v>74.64113527061559</v>
+        <v>0</v>
       </c>
       <c r="I14" t="n">
         <v>0</v>
@@ -1633,7 +1633,7 @@
         <v>0</v>
       </c>
       <c r="K14" t="n">
-        <v>0</v>
+        <v>1.938787537155832</v>
       </c>
       <c r="L14" t="n">
         <v>0</v>
@@ -1663,19 +1663,19 @@
         <v>0</v>
       </c>
       <c r="U14" t="n">
-        <v>0</v>
+        <v>74.64113527061548</v>
       </c>
       <c r="V14" t="n">
         <v>0</v>
       </c>
       <c r="W14" t="n">
-        <v>0</v>
+        <v>74.64113527061548</v>
       </c>
       <c r="X14" t="n">
-        <v>0</v>
+        <v>60.30119012769043</v>
       </c>
       <c r="Y14" t="n">
-        <v>74.64113527061559</v>
+        <v>0</v>
       </c>
     </row>
     <row r="15">
@@ -1685,7 +1685,7 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>0</v>
+        <v>74.64113527061548</v>
       </c>
       <c r="C15" t="n">
         <v>0</v>
@@ -1694,22 +1694,22 @@
         <v>0</v>
       </c>
       <c r="E15" t="n">
-        <v>0</v>
+        <v>74.64113527061548</v>
       </c>
       <c r="F15" t="n">
         <v>0</v>
       </c>
       <c r="G15" t="n">
-        <v>0</v>
+        <v>42.17393258178056</v>
       </c>
       <c r="H15" t="n">
         <v>0</v>
       </c>
       <c r="I15" t="n">
-        <v>74.64113527061559</v>
+        <v>0</v>
       </c>
       <c r="J15" t="n">
-        <v>59.06417529311322</v>
+        <v>0</v>
       </c>
       <c r="K15" t="n">
         <v>0</v>
@@ -1730,16 +1730,16 @@
         <v>0</v>
       </c>
       <c r="Q15" t="n">
-        <v>0</v>
+        <v>23.56997936457755</v>
       </c>
       <c r="R15" t="n">
-        <v>74.64113527061559</v>
+        <v>0</v>
       </c>
       <c r="S15" t="n">
-        <v>74.64113527061559</v>
+        <v>0</v>
       </c>
       <c r="T15" t="n">
-        <v>6.679736653244986</v>
+        <v>0</v>
       </c>
       <c r="U15" t="n">
         <v>0</v>
@@ -1748,7 +1748,7 @@
         <v>0</v>
       </c>
       <c r="W15" t="n">
-        <v>0</v>
+        <v>74.64113527061548</v>
       </c>
       <c r="X15" t="n">
         <v>0</v>
@@ -1852,22 +1852,22 @@
         <v>0</v>
       </c>
       <c r="E17" t="n">
-        <v>0</v>
+        <v>74.64113527061548</v>
       </c>
       <c r="F17" t="n">
         <v>0</v>
       </c>
       <c r="G17" t="n">
-        <v>74.64113527061559</v>
+        <v>0</v>
       </c>
       <c r="H17" t="n">
-        <v>74.64113527061559</v>
+        <v>0</v>
       </c>
       <c r="I17" t="n">
-        <v>74.64113527061559</v>
+        <v>0</v>
       </c>
       <c r="J17" t="n">
-        <v>62.23997766484631</v>
+        <v>0</v>
       </c>
       <c r="K17" t="n">
         <v>0</v>
@@ -1891,7 +1891,7 @@
         <v>0</v>
       </c>
       <c r="R17" t="n">
-        <v>0</v>
+        <v>74.64113527061548</v>
       </c>
       <c r="S17" t="n">
         <v>0</v>
@@ -1903,13 +1903,13 @@
         <v>0</v>
       </c>
       <c r="V17" t="n">
-        <v>0</v>
+        <v>62.23997766484626</v>
       </c>
       <c r="W17" t="n">
         <v>0</v>
       </c>
       <c r="X17" t="n">
-        <v>0</v>
+        <v>74.64113527061548</v>
       </c>
       <c r="Y17" t="n">
         <v>0</v>
@@ -1928,25 +1928,25 @@
         <v>0</v>
       </c>
       <c r="D18" t="n">
-        <v>0</v>
+        <v>74.64113527061548</v>
       </c>
       <c r="E18" t="n">
         <v>0</v>
       </c>
       <c r="F18" t="n">
-        <v>6.679736653244986</v>
+        <v>0</v>
       </c>
       <c r="G18" t="n">
-        <v>74.64113527061559</v>
+        <v>74.64113527061548</v>
       </c>
       <c r="H18" t="n">
-        <v>74.64113527061559</v>
+        <v>0</v>
       </c>
       <c r="I18" t="n">
-        <v>74.64113527061559</v>
+        <v>0</v>
       </c>
       <c r="J18" t="n">
-        <v>59.06417529311322</v>
+        <v>0</v>
       </c>
       <c r="K18" t="n">
         <v>0</v>
@@ -1967,7 +1967,7 @@
         <v>0</v>
       </c>
       <c r="Q18" t="n">
-        <v>0</v>
+        <v>23.56997936457755</v>
       </c>
       <c r="R18" t="n">
         <v>0</v>
@@ -1976,13 +1976,13 @@
         <v>0</v>
       </c>
       <c r="T18" t="n">
-        <v>0</v>
+        <v>74.64113527061548</v>
       </c>
       <c r="U18" t="n">
         <v>0</v>
       </c>
       <c r="V18" t="n">
-        <v>0</v>
+        <v>42.17393258178056</v>
       </c>
       <c r="W18" t="n">
         <v>0</v>
@@ -2089,10 +2089,10 @@
         <v>0</v>
       </c>
       <c r="E20" t="n">
-        <v>74.64113527061559</v>
+        <v>0</v>
       </c>
       <c r="F20" t="n">
-        <v>74.64113527061559</v>
+        <v>74.64113527061548</v>
       </c>
       <c r="G20" t="n">
         <v>0</v>
@@ -2125,10 +2125,10 @@
         <v>0</v>
       </c>
       <c r="Q20" t="n">
-        <v>62.23997766484628</v>
+        <v>69.85414983824657</v>
       </c>
       <c r="R20" t="n">
-        <v>74.64113527061559</v>
+        <v>74.64113527061548</v>
       </c>
       <c r="S20" t="n">
         <v>0</v>
@@ -2140,7 +2140,7 @@
         <v>0</v>
       </c>
       <c r="V20" t="n">
-        <v>0</v>
+        <v>67.02696309721516</v>
       </c>
       <c r="W20" t="n">
         <v>0</v>
@@ -2162,16 +2162,16 @@
         <v>0</v>
       </c>
       <c r="C21" t="n">
-        <v>0</v>
+        <v>74.64113527061548</v>
       </c>
       <c r="D21" t="n">
-        <v>0</v>
+        <v>65.74391194635811</v>
       </c>
       <c r="E21" t="n">
-        <v>0</v>
+        <v>74.64113527061548</v>
       </c>
       <c r="F21" t="n">
-        <v>0</v>
+        <v>74.64113527061548</v>
       </c>
       <c r="G21" t="n">
         <v>0</v>
@@ -2204,22 +2204,22 @@
         <v>0</v>
       </c>
       <c r="Q21" t="n">
-        <v>23.56997936457755</v>
+        <v>0</v>
       </c>
       <c r="R21" t="n">
         <v>0</v>
       </c>
       <c r="S21" t="n">
-        <v>74.64113527061559</v>
+        <v>0</v>
       </c>
       <c r="T21" t="n">
-        <v>74.64113527061559</v>
+        <v>0</v>
       </c>
       <c r="U21" t="n">
         <v>0</v>
       </c>
       <c r="V21" t="n">
-        <v>74.64113527061559</v>
+        <v>0</v>
       </c>
       <c r="W21" t="n">
         <v>0</v>
@@ -2228,7 +2228,7 @@
         <v>0</v>
       </c>
       <c r="Y21" t="n">
-        <v>42.17393258178066</v>
+        <v>0</v>
       </c>
     </row>
     <row r="22">
@@ -2329,16 +2329,16 @@
         <v>0</v>
       </c>
       <c r="F23" t="n">
-        <v>0</v>
+        <v>105.3023654107106</v>
       </c>
       <c r="G23" t="n">
         <v>0</v>
       </c>
       <c r="H23" t="n">
-        <v>105.3023654107106</v>
+        <v>0</v>
       </c>
       <c r="I23" t="n">
-        <v>105.3023654107106</v>
+        <v>0</v>
       </c>
       <c r="J23" t="n">
         <v>0</v>
@@ -2365,7 +2365,7 @@
         <v>30.3584305651754</v>
       </c>
       <c r="R23" t="n">
-        <v>0</v>
+        <v>105.3023654107106</v>
       </c>
       <c r="S23" t="n">
         <v>0</v>
@@ -2377,10 +2377,10 @@
         <v>0</v>
       </c>
       <c r="V23" t="n">
-        <v>0</v>
+        <v>105.3023654107106</v>
       </c>
       <c r="W23" t="n">
-        <v>105.3023654107106</v>
+        <v>0</v>
       </c>
       <c r="X23" t="n">
         <v>0</v>
@@ -2402,22 +2402,22 @@
         <v>0</v>
       </c>
       <c r="D24" t="n">
-        <v>0</v>
+        <v>105.3023654107106</v>
       </c>
       <c r="E24" t="n">
         <v>0</v>
       </c>
       <c r="F24" t="n">
-        <v>0</v>
+        <v>105.3023654107106</v>
       </c>
       <c r="G24" t="n">
-        <v>0</v>
+        <v>105.3023654107106</v>
       </c>
       <c r="H24" t="n">
         <v>0</v>
       </c>
       <c r="I24" t="n">
-        <v>105.3023654107106</v>
+        <v>92.75032345375391</v>
       </c>
       <c r="J24" t="n">
         <v>0</v>
@@ -2459,13 +2459,13 @@
         <v>0</v>
       </c>
       <c r="W24" t="n">
-        <v>92.75032345375391</v>
+        <v>0</v>
       </c>
       <c r="X24" t="n">
-        <v>105.3023654107106</v>
+        <v>0</v>
       </c>
       <c r="Y24" t="n">
-        <v>105.3023654107106</v>
+        <v>0</v>
       </c>
     </row>
     <row r="25">
@@ -2554,22 +2554,22 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>65.80664613763943</v>
+        <v>0</v>
       </c>
       <c r="C26" t="n">
+        <v>0</v>
+      </c>
+      <c r="D26" t="n">
+        <v>0</v>
+      </c>
+      <c r="E26" t="n">
         <v>105.3023654107106</v>
       </c>
-      <c r="D26" t="n">
-        <v>0</v>
-      </c>
-      <c r="E26" t="n">
-        <v>0</v>
-      </c>
       <c r="F26" t="n">
-        <v>0</v>
+        <v>105.3023654107106</v>
       </c>
       <c r="G26" t="n">
-        <v>0</v>
+        <v>105.3023654107106</v>
       </c>
       <c r="H26" t="n">
         <v>0</v>
@@ -2599,10 +2599,10 @@
         <v>0</v>
       </c>
       <c r="Q26" t="n">
-        <v>69.85414983824657</v>
+        <v>0</v>
       </c>
       <c r="R26" t="n">
-        <v>105.3023654107106</v>
+        <v>0</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
@@ -2614,7 +2614,7 @@
         <v>0</v>
       </c>
       <c r="V26" t="n">
-        <v>0</v>
+        <v>30.3584305651754</v>
       </c>
       <c r="W26" t="n">
         <v>0</v>
@@ -2639,53 +2639,53 @@
         <v>0</v>
       </c>
       <c r="D27" t="n">
-        <v>0</v>
+        <v>105.3023654107106</v>
       </c>
       <c r="E27" t="n">
+        <v>0</v>
+      </c>
+      <c r="F27" t="n">
         <v>105.3023654107106</v>
       </c>
-      <c r="F27" t="n">
-        <v>0</v>
-      </c>
       <c r="G27" t="n">
+        <v>92.75032345375391</v>
+      </c>
+      <c r="H27" t="n">
+        <v>0</v>
+      </c>
+      <c r="I27" t="n">
+        <v>0</v>
+      </c>
+      <c r="J27" t="n">
+        <v>0</v>
+      </c>
+      <c r="K27" t="n">
+        <v>0</v>
+      </c>
+      <c r="L27" t="n">
+        <v>0</v>
+      </c>
+      <c r="M27" t="n">
+        <v>0</v>
+      </c>
+      <c r="N27" t="n">
+        <v>0</v>
+      </c>
+      <c r="O27" t="n">
+        <v>0</v>
+      </c>
+      <c r="P27" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q27" t="n">
+        <v>0</v>
+      </c>
+      <c r="R27" t="n">
+        <v>0</v>
+      </c>
+      <c r="S27" t="n">
         <v>105.3023654107106</v>
       </c>
-      <c r="H27" t="n">
-        <v>92.75032345375391</v>
-      </c>
-      <c r="I27" t="n">
-        <v>0</v>
-      </c>
-      <c r="J27" t="n">
-        <v>0</v>
-      </c>
-      <c r="K27" t="n">
-        <v>0</v>
-      </c>
-      <c r="L27" t="n">
-        <v>0</v>
-      </c>
-      <c r="M27" t="n">
-        <v>0</v>
-      </c>
-      <c r="N27" t="n">
-        <v>0</v>
-      </c>
-      <c r="O27" t="n">
-        <v>0</v>
-      </c>
-      <c r="P27" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q27" t="n">
-        <v>0</v>
-      </c>
-      <c r="R27" t="n">
-        <v>0</v>
-      </c>
-      <c r="S27" t="n">
-        <v>0</v>
-      </c>
       <c r="T27" t="n">
         <v>0</v>
       </c>
@@ -2693,7 +2693,7 @@
         <v>0</v>
       </c>
       <c r="V27" t="n">
-        <v>105.3023654107106</v>
+        <v>0</v>
       </c>
       <c r="W27" t="n">
         <v>0</v>
@@ -2791,70 +2791,70 @@
         </is>
       </c>
       <c r="B29" t="n">
+        <v>30.3584305651754</v>
+      </c>
+      <c r="C29" t="n">
+        <v>0</v>
+      </c>
+      <c r="D29" t="n">
+        <v>0</v>
+      </c>
+      <c r="E29" t="n">
+        <v>0</v>
+      </c>
+      <c r="F29" t="n">
+        <v>0</v>
+      </c>
+      <c r="G29" t="n">
+        <v>0</v>
+      </c>
+      <c r="H29" t="n">
+        <v>0</v>
+      </c>
+      <c r="I29" t="n">
+        <v>0</v>
+      </c>
+      <c r="J29" t="n">
+        <v>0</v>
+      </c>
+      <c r="K29" t="n">
+        <v>0</v>
+      </c>
+      <c r="L29" t="n">
+        <v>0</v>
+      </c>
+      <c r="M29" t="n">
+        <v>0</v>
+      </c>
+      <c r="N29" t="n">
+        <v>0</v>
+      </c>
+      <c r="O29" t="n">
+        <v>0</v>
+      </c>
+      <c r="P29" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q29" t="n">
+        <v>0</v>
+      </c>
+      <c r="R29" t="n">
+        <v>0</v>
+      </c>
+      <c r="S29" t="n">
+        <v>0</v>
+      </c>
+      <c r="T29" t="n">
+        <v>0</v>
+      </c>
+      <c r="U29" t="n">
+        <v>0</v>
+      </c>
+      <c r="V29" t="n">
         <v>105.3023654107106</v>
       </c>
-      <c r="C29" t="n">
+      <c r="W29" t="n">
         <v>105.3023654107106</v>
-      </c>
-      <c r="D29" t="n">
-        <v>30.3584305651754</v>
-      </c>
-      <c r="E29" t="n">
-        <v>0</v>
-      </c>
-      <c r="F29" t="n">
-        <v>0</v>
-      </c>
-      <c r="G29" t="n">
-        <v>0</v>
-      </c>
-      <c r="H29" t="n">
-        <v>0</v>
-      </c>
-      <c r="I29" t="n">
-        <v>0</v>
-      </c>
-      <c r="J29" t="n">
-        <v>0</v>
-      </c>
-      <c r="K29" t="n">
-        <v>0</v>
-      </c>
-      <c r="L29" t="n">
-        <v>0</v>
-      </c>
-      <c r="M29" t="n">
-        <v>0</v>
-      </c>
-      <c r="N29" t="n">
-        <v>0</v>
-      </c>
-      <c r="O29" t="n">
-        <v>0</v>
-      </c>
-      <c r="P29" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q29" t="n">
-        <v>0</v>
-      </c>
-      <c r="R29" t="n">
-        <v>0</v>
-      </c>
-      <c r="S29" t="n">
-        <v>0</v>
-      </c>
-      <c r="T29" t="n">
-        <v>0</v>
-      </c>
-      <c r="U29" t="n">
-        <v>0</v>
-      </c>
-      <c r="V29" t="n">
-        <v>0</v>
-      </c>
-      <c r="W29" t="n">
-        <v>0</v>
       </c>
       <c r="X29" t="n">
         <v>0</v>
@@ -2870,19 +2870,19 @@
         </is>
       </c>
       <c r="B30" t="n">
-        <v>92.75032345375391</v>
+        <v>0</v>
       </c>
       <c r="C30" t="n">
-        <v>0</v>
+        <v>105.3023654107106</v>
       </c>
       <c r="D30" t="n">
         <v>0</v>
       </c>
       <c r="E30" t="n">
-        <v>0</v>
+        <v>69.18034408917636</v>
       </c>
       <c r="F30" t="n">
-        <v>105.3023654107106</v>
+        <v>0</v>
       </c>
       <c r="G30" t="n">
         <v>105.3023654107106</v>
@@ -2915,16 +2915,16 @@
         <v>0</v>
       </c>
       <c r="Q30" t="n">
-        <v>0</v>
+        <v>23.56997936457755</v>
       </c>
       <c r="R30" t="n">
-        <v>0</v>
+        <v>105.3023654107106</v>
       </c>
       <c r="S30" t="n">
         <v>0</v>
       </c>
       <c r="T30" t="n">
-        <v>105.3023654107106</v>
+        <v>0</v>
       </c>
       <c r="U30" t="n">
         <v>0</v>
@@ -3031,13 +3031,13 @@
         <v>0</v>
       </c>
       <c r="C32" t="n">
-        <v>0</v>
+        <v>65.80664613763943</v>
       </c>
       <c r="D32" t="n">
         <v>0</v>
       </c>
       <c r="E32" t="n">
-        <v>0</v>
+        <v>105.3023654107106</v>
       </c>
       <c r="F32" t="n">
         <v>0</v>
@@ -3073,10 +3073,10 @@
         <v>0</v>
       </c>
       <c r="Q32" t="n">
-        <v>0</v>
+        <v>69.85414983824657</v>
       </c>
       <c r="R32" t="n">
-        <v>0</v>
+        <v>105.3023654107106</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
@@ -3088,16 +3088,16 @@
         <v>0</v>
       </c>
       <c r="V32" t="n">
-        <v>105.3023654107106</v>
+        <v>0</v>
       </c>
       <c r="W32" t="n">
-        <v>105.3023654107106</v>
+        <v>0</v>
       </c>
       <c r="X32" t="n">
-        <v>105.3023654107106</v>
+        <v>0</v>
       </c>
       <c r="Y32" t="n">
-        <v>30.3584305651754</v>
+        <v>0</v>
       </c>
     </row>
     <row r="33">
@@ -3107,64 +3107,64 @@
         </is>
       </c>
       <c r="B33" t="n">
+        <v>92.75032345375391</v>
+      </c>
+      <c r="C33" t="n">
+        <v>0</v>
+      </c>
+      <c r="D33" t="n">
+        <v>0</v>
+      </c>
+      <c r="E33" t="n">
+        <v>0</v>
+      </c>
+      <c r="F33" t="n">
+        <v>0</v>
+      </c>
+      <c r="G33" t="n">
+        <v>0</v>
+      </c>
+      <c r="H33" t="n">
+        <v>0</v>
+      </c>
+      <c r="I33" t="n">
+        <v>0</v>
+      </c>
+      <c r="J33" t="n">
+        <v>0</v>
+      </c>
+      <c r="K33" t="n">
+        <v>0</v>
+      </c>
+      <c r="L33" t="n">
+        <v>0</v>
+      </c>
+      <c r="M33" t="n">
+        <v>0</v>
+      </c>
+      <c r="N33" t="n">
+        <v>0</v>
+      </c>
+      <c r="O33" t="n">
+        <v>0</v>
+      </c>
+      <c r="P33" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q33" t="n">
+        <v>0</v>
+      </c>
+      <c r="R33" t="n">
+        <v>0</v>
+      </c>
+      <c r="S33" t="n">
+        <v>0</v>
+      </c>
+      <c r="T33" t="n">
         <v>105.3023654107106</v>
       </c>
-      <c r="C33" t="n">
-        <v>0</v>
-      </c>
-      <c r="D33" t="n">
-        <v>0</v>
-      </c>
-      <c r="E33" t="n">
-        <v>0</v>
-      </c>
-      <c r="F33" t="n">
-        <v>0</v>
-      </c>
-      <c r="G33" t="n">
-        <v>0</v>
-      </c>
-      <c r="H33" t="n">
-        <v>92.75032345375391</v>
-      </c>
-      <c r="I33" t="n">
+      <c r="U33" t="n">
         <v>105.3023654107106</v>
-      </c>
-      <c r="J33" t="n">
-        <v>0</v>
-      </c>
-      <c r="K33" t="n">
-        <v>0</v>
-      </c>
-      <c r="L33" t="n">
-        <v>0</v>
-      </c>
-      <c r="M33" t="n">
-        <v>0</v>
-      </c>
-      <c r="N33" t="n">
-        <v>0</v>
-      </c>
-      <c r="O33" t="n">
-        <v>0</v>
-      </c>
-      <c r="P33" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q33" t="n">
-        <v>0</v>
-      </c>
-      <c r="R33" t="n">
-        <v>0</v>
-      </c>
-      <c r="S33" t="n">
-        <v>0</v>
-      </c>
-      <c r="T33" t="n">
-        <v>0</v>
-      </c>
-      <c r="U33" t="n">
-        <v>0</v>
       </c>
       <c r="V33" t="n">
         <v>0</v>
@@ -3286,13 +3286,13 @@
         <v>0</v>
       </c>
       <c r="I35" t="n">
-        <v>73.30847416048692</v>
+        <v>0</v>
       </c>
       <c r="J35" t="n">
-        <v>63.57263877497482</v>
+        <v>0</v>
       </c>
       <c r="K35" t="n">
-        <v>0</v>
+        <v>1.938787537155832</v>
       </c>
       <c r="L35" t="n">
         <v>0</v>
@@ -3310,10 +3310,10 @@
         <v>0</v>
       </c>
       <c r="Q35" t="n">
-        <v>0</v>
+        <v>69.85414983824657</v>
       </c>
       <c r="R35" t="n">
-        <v>0</v>
+        <v>74.64113527061548</v>
       </c>
       <c r="S35" t="n">
         <v>0</v>
@@ -3322,19 +3322,19 @@
         <v>0</v>
       </c>
       <c r="U35" t="n">
-        <v>0</v>
+        <v>74.64113527061548</v>
       </c>
       <c r="V35" t="n">
-        <v>0</v>
+        <v>65.08817556005933</v>
       </c>
       <c r="W35" t="n">
         <v>0</v>
       </c>
       <c r="X35" t="n">
-        <v>74.64113527061548</v>
+        <v>0</v>
       </c>
       <c r="Y35" t="n">
-        <v>74.64113527061548</v>
+        <v>0</v>
       </c>
     </row>
     <row r="36">
@@ -3344,76 +3344,76 @@
         </is>
       </c>
       <c r="B36" t="n">
+        <v>0</v>
+      </c>
+      <c r="C36" t="n">
+        <v>0</v>
+      </c>
+      <c r="D36" t="n">
+        <v>42.17393258178056</v>
+      </c>
+      <c r="E36" t="n">
+        <v>0</v>
+      </c>
+      <c r="F36" t="n">
+        <v>0</v>
+      </c>
+      <c r="G36" t="n">
+        <v>0</v>
+      </c>
+      <c r="H36" t="n">
+        <v>0</v>
+      </c>
+      <c r="I36" t="n">
+        <v>0</v>
+      </c>
+      <c r="J36" t="n">
+        <v>0</v>
+      </c>
+      <c r="K36" t="n">
+        <v>0</v>
+      </c>
+      <c r="L36" t="n">
+        <v>0</v>
+      </c>
+      <c r="M36" t="n">
+        <v>0</v>
+      </c>
+      <c r="N36" t="n">
+        <v>0</v>
+      </c>
+      <c r="O36" t="n">
+        <v>0</v>
+      </c>
+      <c r="P36" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q36" t="n">
+        <v>23.56997936457755</v>
+      </c>
+      <c r="R36" t="n">
+        <v>0</v>
+      </c>
+      <c r="S36" t="n">
+        <v>0</v>
+      </c>
+      <c r="T36" t="n">
+        <v>0</v>
+      </c>
+      <c r="U36" t="n">
         <v>74.64113527061548</v>
       </c>
-      <c r="C36" t="n">
-        <v>0</v>
-      </c>
-      <c r="D36" t="n">
-        <v>0</v>
-      </c>
-      <c r="E36" t="n">
-        <v>0</v>
-      </c>
-      <c r="F36" t="n">
-        <v>0</v>
-      </c>
-      <c r="G36" t="n">
-        <v>0</v>
-      </c>
-      <c r="H36" t="n">
-        <v>0</v>
-      </c>
-      <c r="I36" t="n">
-        <v>0</v>
-      </c>
-      <c r="J36" t="n">
-        <v>59.06417529311322</v>
-      </c>
-      <c r="K36" t="n">
-        <v>0</v>
-      </c>
-      <c r="L36" t="n">
-        <v>0</v>
-      </c>
-      <c r="M36" t="n">
-        <v>0</v>
-      </c>
-      <c r="N36" t="n">
-        <v>0</v>
-      </c>
-      <c r="O36" t="n">
-        <v>0</v>
-      </c>
-      <c r="P36" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q36" t="n">
-        <v>0</v>
-      </c>
-      <c r="R36" t="n">
-        <v>0</v>
-      </c>
-      <c r="S36" t="n">
-        <v>0</v>
-      </c>
-      <c r="T36" t="n">
-        <v>0</v>
-      </c>
-      <c r="U36" t="n">
-        <v>0</v>
-      </c>
       <c r="V36" t="n">
-        <v>0</v>
+        <v>74.64113527061548</v>
       </c>
       <c r="W36" t="n">
         <v>74.64113527061548</v>
       </c>
       <c r="X36" t="n">
-        <v>6.679736653244873</v>
+        <v>0</v>
       </c>
       <c r="Y36" t="n">
-        <v>74.64113527061548</v>
+        <v>0</v>
       </c>
     </row>
     <row r="37">
@@ -3514,10 +3514,10 @@
         <v>0</v>
       </c>
       <c r="F38" t="n">
-        <v>0</v>
+        <v>74.64113527061548</v>
       </c>
       <c r="G38" t="n">
-        <v>0</v>
+        <v>74.64113527061548</v>
       </c>
       <c r="H38" t="n">
         <v>0</v>
@@ -3550,25 +3550,25 @@
         <v>0</v>
       </c>
       <c r="R38" t="n">
+        <v>0</v>
+      </c>
+      <c r="S38" t="n">
+        <v>0</v>
+      </c>
+      <c r="T38" t="n">
+        <v>0</v>
+      </c>
+      <c r="U38" t="n">
         <v>62.23997766484623</v>
       </c>
-      <c r="S38" t="n">
-        <v>0</v>
-      </c>
-      <c r="T38" t="n">
-        <v>0</v>
-      </c>
-      <c r="U38" t="n">
-        <v>0</v>
-      </c>
       <c r="V38" t="n">
         <v>0</v>
       </c>
       <c r="W38" t="n">
-        <v>74.64113527061548</v>
+        <v>0</v>
       </c>
       <c r="X38" t="n">
-        <v>74.64113527061548</v>
+        <v>0</v>
       </c>
       <c r="Y38" t="n">
         <v>74.64113527061548</v>
@@ -3581,64 +3581,64 @@
         </is>
       </c>
       <c r="B39" t="n">
-        <v>0</v>
+        <v>65.74391194635812</v>
       </c>
       <c r="C39" t="n">
+        <v>0</v>
+      </c>
+      <c r="D39" t="n">
+        <v>0</v>
+      </c>
+      <c r="E39" t="n">
+        <v>0</v>
+      </c>
+      <c r="F39" t="n">
         <v>74.64113527061548</v>
       </c>
-      <c r="D39" t="n">
-        <v>0</v>
-      </c>
-      <c r="E39" t="n">
+      <c r="G39" t="n">
+        <v>0</v>
+      </c>
+      <c r="H39" t="n">
+        <v>0</v>
+      </c>
+      <c r="I39" t="n">
+        <v>0</v>
+      </c>
+      <c r="J39" t="n">
+        <v>0</v>
+      </c>
+      <c r="K39" t="n">
+        <v>0</v>
+      </c>
+      <c r="L39" t="n">
+        <v>0</v>
+      </c>
+      <c r="M39" t="n">
+        <v>0</v>
+      </c>
+      <c r="N39" t="n">
+        <v>0</v>
+      </c>
+      <c r="O39" t="n">
+        <v>0</v>
+      </c>
+      <c r="P39" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q39" t="n">
+        <v>0</v>
+      </c>
+      <c r="R39" t="n">
+        <v>0</v>
+      </c>
+      <c r="S39" t="n">
+        <v>0</v>
+      </c>
+      <c r="T39" t="n">
+        <v>0</v>
+      </c>
+      <c r="U39" t="n">
         <v>74.64113527061548</v>
-      </c>
-      <c r="F39" t="n">
-        <v>42.17393258178056</v>
-      </c>
-      <c r="G39" t="n">
-        <v>0</v>
-      </c>
-      <c r="H39" t="n">
-        <v>0</v>
-      </c>
-      <c r="I39" t="n">
-        <v>0</v>
-      </c>
-      <c r="J39" t="n">
-        <v>0</v>
-      </c>
-      <c r="K39" t="n">
-        <v>0</v>
-      </c>
-      <c r="L39" t="n">
-        <v>0</v>
-      </c>
-      <c r="M39" t="n">
-        <v>0</v>
-      </c>
-      <c r="N39" t="n">
-        <v>0</v>
-      </c>
-      <c r="O39" t="n">
-        <v>0</v>
-      </c>
-      <c r="P39" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q39" t="n">
-        <v>23.56997936457755</v>
-      </c>
-      <c r="R39" t="n">
-        <v>0</v>
-      </c>
-      <c r="S39" t="n">
-        <v>0</v>
-      </c>
-      <c r="T39" t="n">
-        <v>0</v>
-      </c>
-      <c r="U39" t="n">
-        <v>0</v>
       </c>
       <c r="V39" t="n">
         <v>0</v>
@@ -3739,67 +3739,67 @@
         </is>
       </c>
       <c r="B41" t="n">
+        <v>0</v>
+      </c>
+      <c r="C41" t="n">
+        <v>0</v>
+      </c>
+      <c r="D41" t="n">
+        <v>0</v>
+      </c>
+      <c r="E41" t="n">
+        <v>0</v>
+      </c>
+      <c r="F41" t="n">
+        <v>0</v>
+      </c>
+      <c r="G41" t="n">
+        <v>62.23997766484626</v>
+      </c>
+      <c r="H41" t="n">
+        <v>0</v>
+      </c>
+      <c r="I41" t="n">
+        <v>0</v>
+      </c>
+      <c r="J41" t="n">
+        <v>0</v>
+      </c>
+      <c r="K41" t="n">
+        <v>0</v>
+      </c>
+      <c r="L41" t="n">
+        <v>0</v>
+      </c>
+      <c r="M41" t="n">
+        <v>0</v>
+      </c>
+      <c r="N41" t="n">
+        <v>0</v>
+      </c>
+      <c r="O41" t="n">
+        <v>0</v>
+      </c>
+      <c r="P41" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q41" t="n">
+        <v>0</v>
+      </c>
+      <c r="R41" t="n">
+        <v>0</v>
+      </c>
+      <c r="S41" t="n">
+        <v>0</v>
+      </c>
+      <c r="T41" t="n">
         <v>74.64113527061548</v>
       </c>
-      <c r="C41" t="n">
-        <v>0</v>
-      </c>
-      <c r="D41" t="n">
-        <v>0</v>
-      </c>
-      <c r="E41" t="n">
-        <v>0</v>
-      </c>
-      <c r="F41" t="n">
+      <c r="U41" t="n">
         <v>74.64113527061548</v>
       </c>
-      <c r="G41" t="n">
-        <v>0</v>
-      </c>
-      <c r="H41" t="n">
-        <v>0</v>
-      </c>
-      <c r="I41" t="n">
-        <v>0</v>
-      </c>
-      <c r="J41" t="n">
-        <v>0</v>
-      </c>
-      <c r="K41" t="n">
-        <v>1.938787537155832</v>
-      </c>
-      <c r="L41" t="n">
-        <v>0</v>
-      </c>
-      <c r="M41" t="n">
-        <v>0</v>
-      </c>
-      <c r="N41" t="n">
-        <v>0</v>
-      </c>
-      <c r="O41" t="n">
-        <v>0</v>
-      </c>
-      <c r="P41" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q41" t="n">
-        <v>60.30119012769043</v>
-      </c>
-      <c r="R41" t="n">
-        <v>0</v>
-      </c>
-      <c r="S41" t="n">
-        <v>0</v>
-      </c>
-      <c r="T41" t="n">
-        <v>0</v>
-      </c>
-      <c r="U41" t="n">
-        <v>0</v>
-      </c>
       <c r="V41" t="n">
-        <v>0</v>
+        <v>74.64113527061548</v>
       </c>
       <c r="W41" t="n">
         <v>0</v>
@@ -3808,7 +3808,7 @@
         <v>0</v>
       </c>
       <c r="Y41" t="n">
-        <v>74.64113527061548</v>
+        <v>0</v>
       </c>
     </row>
     <row r="42">
@@ -3824,16 +3824,16 @@
         <v>0</v>
       </c>
       <c r="D42" t="n">
-        <v>74.64113527061548</v>
+        <v>0</v>
       </c>
       <c r="E42" t="n">
         <v>74.64113527061548</v>
       </c>
       <c r="F42" t="n">
-        <v>65.74391194635812</v>
+        <v>0</v>
       </c>
       <c r="G42" t="n">
-        <v>0</v>
+        <v>74.64113527061548</v>
       </c>
       <c r="H42" t="n">
         <v>0</v>
@@ -3878,16 +3878,16 @@
         <v>0</v>
       </c>
       <c r="V42" t="n">
-        <v>0</v>
+        <v>74.64113527061548</v>
       </c>
       <c r="W42" t="n">
-        <v>0</v>
+        <v>65.74391194635811</v>
       </c>
       <c r="X42" t="n">
         <v>0</v>
       </c>
       <c r="Y42" t="n">
-        <v>74.64113527061548</v>
+        <v>0</v>
       </c>
     </row>
     <row r="43">
@@ -3988,61 +3988,61 @@
         <v>0</v>
       </c>
       <c r="F44" t="n">
+        <v>0</v>
+      </c>
+      <c r="G44" t="n">
+        <v>0</v>
+      </c>
+      <c r="H44" t="n">
+        <v>0</v>
+      </c>
+      <c r="I44" t="n">
+        <v>0</v>
+      </c>
+      <c r="J44" t="n">
+        <v>0</v>
+      </c>
+      <c r="K44" t="n">
+        <v>0</v>
+      </c>
+      <c r="L44" t="n">
+        <v>0</v>
+      </c>
+      <c r="M44" t="n">
+        <v>0</v>
+      </c>
+      <c r="N44" t="n">
+        <v>0</v>
+      </c>
+      <c r="O44" t="n">
+        <v>0</v>
+      </c>
+      <c r="P44" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q44" t="n">
+        <v>0</v>
+      </c>
+      <c r="R44" t="n">
+        <v>0</v>
+      </c>
+      <c r="S44" t="n">
+        <v>0</v>
+      </c>
+      <c r="T44" t="n">
+        <v>0</v>
+      </c>
+      <c r="U44" t="n">
         <v>74.64113527061548</v>
       </c>
-      <c r="G44" t="n">
-        <v>67.02696309721516</v>
-      </c>
-      <c r="H44" t="n">
-        <v>0</v>
-      </c>
-      <c r="I44" t="n">
-        <v>0</v>
-      </c>
-      <c r="J44" t="n">
-        <v>0</v>
-      </c>
-      <c r="K44" t="n">
-        <v>0</v>
-      </c>
-      <c r="L44" t="n">
-        <v>0</v>
-      </c>
-      <c r="M44" t="n">
-        <v>0</v>
-      </c>
-      <c r="N44" t="n">
-        <v>0</v>
-      </c>
-      <c r="O44" t="n">
-        <v>0</v>
-      </c>
-      <c r="P44" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q44" t="n">
-        <v>69.85414983824657</v>
-      </c>
-      <c r="R44" t="n">
+      <c r="V44" t="n">
         <v>74.64113527061548</v>
       </c>
-      <c r="S44" t="n">
-        <v>0</v>
-      </c>
-      <c r="T44" t="n">
-        <v>0</v>
-      </c>
-      <c r="U44" t="n">
-        <v>0</v>
-      </c>
-      <c r="V44" t="n">
-        <v>0</v>
-      </c>
       <c r="W44" t="n">
-        <v>0</v>
+        <v>74.64113527061548</v>
       </c>
       <c r="X44" t="n">
-        <v>0</v>
+        <v>62.23997766484626</v>
       </c>
       <c r="Y44" t="n">
         <v>0</v>
@@ -4055,7 +4055,7 @@
         </is>
       </c>
       <c r="B45" t="n">
-        <v>0</v>
+        <v>74.64113527061548</v>
       </c>
       <c r="C45" t="n">
         <v>0</v>
@@ -4067,7 +4067,7 @@
         <v>0</v>
       </c>
       <c r="F45" t="n">
-        <v>0</v>
+        <v>74.64113527061548</v>
       </c>
       <c r="G45" t="n">
         <v>65.74391194635812</v>
@@ -4109,7 +4109,7 @@
         <v>0</v>
       </c>
       <c r="T45" t="n">
-        <v>74.64113527061548</v>
+        <v>0</v>
       </c>
       <c r="U45" t="n">
         <v>74.64113527061548</v>
@@ -4118,7 +4118,7 @@
         <v>0</v>
       </c>
       <c r="W45" t="n">
-        <v>74.64113527061548</v>
+        <v>0</v>
       </c>
       <c r="X45" t="n">
         <v>0</v>
@@ -5017,76 +5017,76 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>144.2350412615098</v>
+        <v>219.6301273934444</v>
       </c>
       <c r="C11" t="n">
-        <v>144.2350412615098</v>
+        <v>219.6301273934444</v>
       </c>
       <c r="D11" t="n">
-        <v>144.2350412615098</v>
+        <v>219.6301273934444</v>
       </c>
       <c r="E11" t="n">
-        <v>144.2350412615098</v>
+        <v>144.2350412615096</v>
       </c>
       <c r="F11" t="n">
-        <v>144.2350412615098</v>
+        <v>68.83995512957476</v>
       </c>
       <c r="G11" t="n">
-        <v>144.2350412615098</v>
+        <v>7.929662071301594</v>
       </c>
       <c r="H11" t="n">
-        <v>144.2350412615098</v>
+        <v>7.929662071301594</v>
       </c>
       <c r="I11" t="n">
-        <v>72.14444871269032</v>
+        <v>7.929662071301594</v>
       </c>
       <c r="J11" t="n">
-        <v>7.929662071301603</v>
+        <v>7.929662071301594</v>
       </c>
       <c r="K11" t="n">
-        <v>5.971290821649247</v>
+        <v>5.971290821649238</v>
       </c>
       <c r="L11" t="n">
         <v>61.55639761142778</v>
       </c>
       <c r="M11" t="n">
-        <v>135.4511215293372</v>
+        <v>135.4511215293371</v>
       </c>
       <c r="N11" t="n">
-        <v>209.3458454472467</v>
+        <v>209.3458454472464</v>
       </c>
       <c r="O11" t="n">
-        <v>283.2405693651561</v>
+        <v>283.2405693651557</v>
       </c>
       <c r="P11" t="n">
-        <v>295.0252135253796</v>
+        <v>295.0252135253792</v>
       </c>
       <c r="Q11" t="n">
-        <v>295.0252135253796</v>
+        <v>295.0252135253792</v>
       </c>
       <c r="R11" t="n">
-        <v>295.0252135253796</v>
+        <v>295.0252135253792</v>
       </c>
       <c r="S11" t="n">
-        <v>295.0252135253796</v>
+        <v>295.0252135253792</v>
       </c>
       <c r="T11" t="n">
-        <v>219.6301273934447</v>
+        <v>295.0252135253792</v>
       </c>
       <c r="U11" t="n">
-        <v>144.2350412615098</v>
+        <v>295.0252135253792</v>
       </c>
       <c r="V11" t="n">
-        <v>144.2350412615098</v>
+        <v>295.0252135253792</v>
       </c>
       <c r="W11" t="n">
-        <v>144.2350412615098</v>
+        <v>295.0252135253792</v>
       </c>
       <c r="X11" t="n">
-        <v>144.2350412615098</v>
+        <v>295.0252135253792</v>
       </c>
       <c r="Y11" t="n">
-        <v>144.2350412615098</v>
+        <v>219.6301273934444</v>
       </c>
     </row>
     <row r="12">
@@ -5096,76 +5096,76 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>298.5645410824624</v>
+        <v>81.36637695358407</v>
       </c>
       <c r="C12" t="n">
-        <v>298.5645410824624</v>
+        <v>5.971290821649238</v>
       </c>
       <c r="D12" t="n">
-        <v>298.5645410824624</v>
+        <v>5.971290821649238</v>
       </c>
       <c r="E12" t="n">
-        <v>298.5645410824624</v>
+        <v>5.971290821649238</v>
       </c>
       <c r="F12" t="n">
-        <v>232.1565492174541</v>
+        <v>5.971290821649238</v>
       </c>
       <c r="G12" t="n">
-        <v>156.7614630855192</v>
+        <v>5.971290821649238</v>
       </c>
       <c r="H12" t="n">
-        <v>81.36637695358419</v>
+        <v>5.971290821649238</v>
       </c>
       <c r="I12" t="n">
-        <v>5.971290821649247</v>
+        <v>5.971290821649238</v>
       </c>
       <c r="J12" t="n">
-        <v>5.971290821649247</v>
+        <v>5.971290821649238</v>
       </c>
       <c r="K12" t="n">
-        <v>32.93330441565733</v>
+        <v>5.971290821649238</v>
       </c>
       <c r="L12" t="n">
-        <v>45.40075290447604</v>
+        <v>79.86601473955855</v>
       </c>
       <c r="M12" t="n">
-        <v>88.259096941313</v>
+        <v>153.7607386574679</v>
       </c>
       <c r="N12" t="n">
-        <v>153.3244170051027</v>
+        <v>218.8260587212576</v>
       </c>
       <c r="O12" t="n">
-        <v>224.6698171645529</v>
+        <v>292.7207826391669</v>
       </c>
       <c r="P12" t="n">
-        <v>298.5645410824624</v>
+        <v>298.5645410824619</v>
       </c>
       <c r="Q12" t="n">
-        <v>298.5645410824624</v>
+        <v>274.7564811182422</v>
       </c>
       <c r="R12" t="n">
-        <v>298.5645410824624</v>
+        <v>274.7564811182422</v>
       </c>
       <c r="S12" t="n">
-        <v>298.5645410824624</v>
+        <v>274.7564811182422</v>
       </c>
       <c r="T12" t="n">
-        <v>298.5645410824624</v>
+        <v>199.3613949863073</v>
       </c>
       <c r="U12" t="n">
-        <v>298.5645410824624</v>
+        <v>199.3613949863073</v>
       </c>
       <c r="V12" t="n">
-        <v>298.5645410824624</v>
+        <v>199.3613949863073</v>
       </c>
       <c r="W12" t="n">
-        <v>298.5645410824624</v>
+        <v>199.3613949863073</v>
       </c>
       <c r="X12" t="n">
-        <v>298.5645410824624</v>
+        <v>199.3613949863073</v>
       </c>
       <c r="Y12" t="n">
-        <v>298.5645410824624</v>
+        <v>156.7614630855189</v>
       </c>
     </row>
     <row r="13">
@@ -5175,76 +5175,76 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>5.971290821649247</v>
+        <v>5.971290821649238</v>
       </c>
       <c r="C13" t="n">
-        <v>5.971290821649247</v>
+        <v>5.971290821649238</v>
       </c>
       <c r="D13" t="n">
-        <v>5.971290821649247</v>
+        <v>5.971290821649238</v>
       </c>
       <c r="E13" t="n">
-        <v>5.971290821649247</v>
+        <v>5.971290821649238</v>
       </c>
       <c r="F13" t="n">
-        <v>5.971290821649247</v>
+        <v>5.971290821649238</v>
       </c>
       <c r="G13" t="n">
-        <v>5.971290821649247</v>
+        <v>5.971290821649238</v>
       </c>
       <c r="H13" t="n">
-        <v>5.971290821649247</v>
+        <v>5.971290821649238</v>
       </c>
       <c r="I13" t="n">
-        <v>5.971290821649247</v>
+        <v>5.971290821649238</v>
       </c>
       <c r="J13" t="n">
-        <v>5.971290821649247</v>
+        <v>5.971290821649238</v>
       </c>
       <c r="K13" t="n">
-        <v>5.971290821649247</v>
+        <v>5.971290821649238</v>
       </c>
       <c r="L13" t="n">
-        <v>5.971290821649247</v>
+        <v>5.971290821649238</v>
       </c>
       <c r="M13" t="n">
-        <v>5.971290821649247</v>
+        <v>5.971290821649238</v>
       </c>
       <c r="N13" t="n">
-        <v>5.971290821649247</v>
+        <v>5.971290821649238</v>
       </c>
       <c r="O13" t="n">
-        <v>5.971290821649247</v>
+        <v>5.971290821649238</v>
       </c>
       <c r="P13" t="n">
-        <v>5.971290821649247</v>
+        <v>5.971290821649238</v>
       </c>
       <c r="Q13" t="n">
-        <v>5.971290821649247</v>
+        <v>5.971290821649238</v>
       </c>
       <c r="R13" t="n">
-        <v>5.971290821649247</v>
+        <v>5.971290821649238</v>
       </c>
       <c r="S13" t="n">
-        <v>5.971290821649247</v>
+        <v>5.971290821649238</v>
       </c>
       <c r="T13" t="n">
-        <v>5.971290821649247</v>
+        <v>5.971290821649238</v>
       </c>
       <c r="U13" t="n">
-        <v>5.971290821649247</v>
+        <v>5.971290821649238</v>
       </c>
       <c r="V13" t="n">
-        <v>5.971290821649247</v>
+        <v>5.971290821649238</v>
       </c>
       <c r="W13" t="n">
-        <v>5.971290821649247</v>
+        <v>5.971290821649238</v>
       </c>
       <c r="X13" t="n">
-        <v>5.971290821649247</v>
+        <v>5.971290821649238</v>
       </c>
       <c r="Y13" t="n">
-        <v>5.971290821649247</v>
+        <v>5.971290821649238</v>
       </c>
     </row>
     <row r="14">
@@ -5254,76 +5254,76 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>144.2350412615098</v>
+        <v>7.929662071301594</v>
       </c>
       <c r="C14" t="n">
-        <v>81.36637695358419</v>
+        <v>7.929662071301594</v>
       </c>
       <c r="D14" t="n">
-        <v>81.36637695358419</v>
+        <v>7.929662071301594</v>
       </c>
       <c r="E14" t="n">
-        <v>81.36637695358419</v>
+        <v>7.929662071301594</v>
       </c>
       <c r="F14" t="n">
-        <v>81.36637695358419</v>
+        <v>7.929662071301594</v>
       </c>
       <c r="G14" t="n">
-        <v>81.36637695358419</v>
+        <v>7.929662071301594</v>
       </c>
       <c r="H14" t="n">
-        <v>5.971290821649247</v>
+        <v>7.929662071301594</v>
       </c>
       <c r="I14" t="n">
-        <v>5.971290821649247</v>
+        <v>7.929662071301594</v>
       </c>
       <c r="J14" t="n">
-        <v>5.971290821649247</v>
+        <v>7.929662071301594</v>
       </c>
       <c r="K14" t="n">
-        <v>5.971290821649247</v>
+        <v>5.971290821649238</v>
       </c>
       <c r="L14" t="n">
         <v>61.55639761142778</v>
       </c>
       <c r="M14" t="n">
-        <v>135.4511215293372</v>
+        <v>135.4511215293371</v>
       </c>
       <c r="N14" t="n">
-        <v>209.3458454472467</v>
+        <v>209.3458454472464</v>
       </c>
       <c r="O14" t="n">
-        <v>283.2405693651561</v>
+        <v>283.2405693651557</v>
       </c>
       <c r="P14" t="n">
-        <v>295.0252135253796</v>
+        <v>295.0252135253792</v>
       </c>
       <c r="Q14" t="n">
-        <v>295.0252135253796</v>
+        <v>295.0252135253792</v>
       </c>
       <c r="R14" t="n">
-        <v>295.0252135253796</v>
+        <v>295.0252135253792</v>
       </c>
       <c r="S14" t="n">
-        <v>295.0252135253796</v>
+        <v>295.0252135253792</v>
       </c>
       <c r="T14" t="n">
-        <v>295.0252135253796</v>
+        <v>295.0252135253792</v>
       </c>
       <c r="U14" t="n">
-        <v>295.0252135253796</v>
+        <v>219.6301273934444</v>
       </c>
       <c r="V14" t="n">
-        <v>295.0252135253796</v>
+        <v>219.6301273934444</v>
       </c>
       <c r="W14" t="n">
-        <v>295.0252135253796</v>
+        <v>144.2350412615096</v>
       </c>
       <c r="X14" t="n">
-        <v>295.0252135253796</v>
+        <v>83.32474820323642</v>
       </c>
       <c r="Y14" t="n">
-        <v>219.6301273934447</v>
+        <v>83.32474820323642</v>
       </c>
     </row>
     <row r="15">
@@ -5333,76 +5333,76 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>141.027160077941</v>
+        <v>123.9663088543725</v>
       </c>
       <c r="C15" t="n">
-        <v>141.027160077941</v>
+        <v>123.9663088543725</v>
       </c>
       <c r="D15" t="n">
-        <v>141.027160077941</v>
+        <v>123.9663088543725</v>
       </c>
       <c r="E15" t="n">
-        <v>141.027160077941</v>
+        <v>48.57122272243768</v>
       </c>
       <c r="F15" t="n">
-        <v>141.027160077941</v>
+        <v>48.57122272243768</v>
       </c>
       <c r="G15" t="n">
-        <v>141.027160077941</v>
+        <v>5.971290821649238</v>
       </c>
       <c r="H15" t="n">
-        <v>141.027160077941</v>
+        <v>5.971290821649238</v>
       </c>
       <c r="I15" t="n">
-        <v>65.63207394600605</v>
+        <v>5.971290821649238</v>
       </c>
       <c r="J15" t="n">
-        <v>5.971290821649247</v>
+        <v>5.971290821649238</v>
       </c>
       <c r="K15" t="n">
-        <v>32.93330441565733</v>
+        <v>5.971290821649238</v>
       </c>
       <c r="L15" t="n">
-        <v>85.70977318285381</v>
+        <v>79.86601473955855</v>
       </c>
       <c r="M15" t="n">
-        <v>159.6044971007632</v>
+        <v>153.7607386574679</v>
       </c>
       <c r="N15" t="n">
-        <v>224.6698171645529</v>
+        <v>224.6698171645526</v>
       </c>
       <c r="O15" t="n">
-        <v>298.5645410824624</v>
+        <v>298.5645410824619</v>
       </c>
       <c r="P15" t="n">
-        <v>298.5645410824624</v>
+        <v>298.5645410824619</v>
       </c>
       <c r="Q15" t="n">
-        <v>298.5645410824624</v>
+        <v>274.7564811182422</v>
       </c>
       <c r="R15" t="n">
-        <v>223.1694549505274</v>
+        <v>274.7564811182422</v>
       </c>
       <c r="S15" t="n">
-        <v>147.7743688185925</v>
+        <v>274.7564811182422</v>
       </c>
       <c r="T15" t="n">
-        <v>141.027160077941</v>
+        <v>274.7564811182422</v>
       </c>
       <c r="U15" t="n">
-        <v>141.027160077941</v>
+        <v>274.7564811182422</v>
       </c>
       <c r="V15" t="n">
-        <v>141.027160077941</v>
+        <v>274.7564811182422</v>
       </c>
       <c r="W15" t="n">
-        <v>141.027160077941</v>
+        <v>199.3613949863073</v>
       </c>
       <c r="X15" t="n">
-        <v>141.027160077941</v>
+        <v>199.3613949863073</v>
       </c>
       <c r="Y15" t="n">
-        <v>141.027160077941</v>
+        <v>199.3613949863073</v>
       </c>
     </row>
     <row r="16">
@@ -5412,76 +5412,76 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>5.971290821649247</v>
+        <v>5.971290821649238</v>
       </c>
       <c r="C16" t="n">
-        <v>5.971290821649247</v>
+        <v>5.971290821649238</v>
       </c>
       <c r="D16" t="n">
-        <v>5.971290821649247</v>
+        <v>5.971290821649238</v>
       </c>
       <c r="E16" t="n">
-        <v>5.971290821649247</v>
+        <v>5.971290821649238</v>
       </c>
       <c r="F16" t="n">
-        <v>5.971290821649247</v>
+        <v>5.971290821649238</v>
       </c>
       <c r="G16" t="n">
-        <v>5.971290821649247</v>
+        <v>5.971290821649238</v>
       </c>
       <c r="H16" t="n">
-        <v>5.971290821649247</v>
+        <v>5.971290821649238</v>
       </c>
       <c r="I16" t="n">
-        <v>5.971290821649247</v>
+        <v>5.971290821649238</v>
       </c>
       <c r="J16" t="n">
-        <v>5.971290821649247</v>
+        <v>5.971290821649238</v>
       </c>
       <c r="K16" t="n">
-        <v>5.971290821649247</v>
+        <v>5.971290821649238</v>
       </c>
       <c r="L16" t="n">
-        <v>5.971290821649247</v>
+        <v>5.971290821649238</v>
       </c>
       <c r="M16" t="n">
-        <v>5.971290821649247</v>
+        <v>5.971290821649238</v>
       </c>
       <c r="N16" t="n">
-        <v>5.971290821649247</v>
+        <v>5.971290821649238</v>
       </c>
       <c r="O16" t="n">
-        <v>5.971290821649247</v>
+        <v>5.971290821649238</v>
       </c>
       <c r="P16" t="n">
-        <v>5.971290821649247</v>
+        <v>5.971290821649238</v>
       </c>
       <c r="Q16" t="n">
-        <v>5.971290821649247</v>
+        <v>5.971290821649238</v>
       </c>
       <c r="R16" t="n">
-        <v>5.971290821649247</v>
+        <v>5.971290821649238</v>
       </c>
       <c r="S16" t="n">
-        <v>5.971290821649247</v>
+        <v>5.971290821649238</v>
       </c>
       <c r="T16" t="n">
-        <v>5.971290821649247</v>
+        <v>5.971290821649238</v>
       </c>
       <c r="U16" t="n">
-        <v>5.971290821649247</v>
+        <v>5.971290821649238</v>
       </c>
       <c r="V16" t="n">
-        <v>5.971290821649247</v>
+        <v>5.971290821649238</v>
       </c>
       <c r="W16" t="n">
-        <v>5.971290821649247</v>
+        <v>5.971290821649238</v>
       </c>
       <c r="X16" t="n">
-        <v>5.971290821649247</v>
+        <v>5.971290821649238</v>
       </c>
       <c r="Y16" t="n">
-        <v>5.971290821649247</v>
+        <v>5.971290821649238</v>
       </c>
     </row>
     <row r="17">
@@ -5491,76 +5491,76 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>295.0252135253796</v>
+        <v>81.36637695358407</v>
       </c>
       <c r="C17" t="n">
-        <v>295.0252135253796</v>
+        <v>81.36637695358407</v>
       </c>
       <c r="D17" t="n">
-        <v>295.0252135253796</v>
+        <v>81.36637695358407</v>
       </c>
       <c r="E17" t="n">
-        <v>295.0252135253796</v>
+        <v>5.971290821649238</v>
       </c>
       <c r="F17" t="n">
-        <v>295.0252135253796</v>
+        <v>5.971290821649238</v>
       </c>
       <c r="G17" t="n">
-        <v>219.6301273934447</v>
+        <v>5.971290821649238</v>
       </c>
       <c r="H17" t="n">
-        <v>144.2350412615098</v>
+        <v>5.971290821649238</v>
       </c>
       <c r="I17" t="n">
-        <v>68.83995512957482</v>
+        <v>5.971290821649238</v>
       </c>
       <c r="J17" t="n">
-        <v>5.971290821649247</v>
+        <v>5.971290821649238</v>
       </c>
       <c r="K17" t="n">
-        <v>5.971290821649247</v>
+        <v>5.971290821649238</v>
       </c>
       <c r="L17" t="n">
         <v>61.55639761142778</v>
       </c>
       <c r="M17" t="n">
-        <v>135.4511215293372</v>
+        <v>135.4511215293371</v>
       </c>
       <c r="N17" t="n">
-        <v>209.3458454472467</v>
+        <v>209.3458454472464</v>
       </c>
       <c r="O17" t="n">
-        <v>283.2405693651561</v>
+        <v>283.2405693651557</v>
       </c>
       <c r="P17" t="n">
-        <v>295.0252135253796</v>
+        <v>295.0252135253792</v>
       </c>
       <c r="Q17" t="n">
-        <v>295.0252135253796</v>
+        <v>295.0252135253792</v>
       </c>
       <c r="R17" t="n">
-        <v>295.0252135253796</v>
+        <v>219.6301273934444</v>
       </c>
       <c r="S17" t="n">
-        <v>295.0252135253796</v>
+        <v>219.6301273934444</v>
       </c>
       <c r="T17" t="n">
-        <v>295.0252135253796</v>
+        <v>219.6301273934444</v>
       </c>
       <c r="U17" t="n">
-        <v>295.0252135253796</v>
+        <v>219.6301273934444</v>
       </c>
       <c r="V17" t="n">
-        <v>295.0252135253796</v>
+        <v>156.7614630855189</v>
       </c>
       <c r="W17" t="n">
-        <v>295.0252135253796</v>
+        <v>156.7614630855189</v>
       </c>
       <c r="X17" t="n">
-        <v>295.0252135253796</v>
+        <v>81.36637695358407</v>
       </c>
       <c r="Y17" t="n">
-        <v>295.0252135253796</v>
+        <v>81.36637695358407</v>
       </c>
     </row>
     <row r="18">
@@ -5570,76 +5570,76 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>298.5645410824624</v>
+        <v>156.7614630855189</v>
       </c>
       <c r="C18" t="n">
-        <v>298.5645410824624</v>
+        <v>156.7614630855189</v>
       </c>
       <c r="D18" t="n">
-        <v>298.5645410824624</v>
+        <v>81.36637695358407</v>
       </c>
       <c r="E18" t="n">
-        <v>298.5645410824624</v>
+        <v>81.36637695358407</v>
       </c>
       <c r="F18" t="n">
-        <v>291.8173323418109</v>
+        <v>81.36637695358407</v>
       </c>
       <c r="G18" t="n">
-        <v>216.4222462098759</v>
+        <v>5.971290821649238</v>
       </c>
       <c r="H18" t="n">
-        <v>141.027160077941</v>
+        <v>5.971290821649238</v>
       </c>
       <c r="I18" t="n">
-        <v>65.63207394600605</v>
+        <v>5.971290821649238</v>
       </c>
       <c r="J18" t="n">
-        <v>5.971290821649247</v>
+        <v>5.971290821649238</v>
       </c>
       <c r="K18" t="n">
         <v>32.93330441565733</v>
       </c>
       <c r="L18" t="n">
-        <v>106.8280283335668</v>
+        <v>106.8280283335666</v>
       </c>
       <c r="M18" t="n">
-        <v>159.6044971007632</v>
+        <v>180.722752251476</v>
       </c>
       <c r="N18" t="n">
-        <v>224.6698171645529</v>
+        <v>254.6174761693853</v>
       </c>
       <c r="O18" t="n">
-        <v>298.5645410824624</v>
+        <v>281.6430820075997</v>
       </c>
       <c r="P18" t="n">
-        <v>298.5645410824624</v>
+        <v>298.5645410824619</v>
       </c>
       <c r="Q18" t="n">
-        <v>298.5645410824624</v>
+        <v>274.7564811182422</v>
       </c>
       <c r="R18" t="n">
-        <v>298.5645410824624</v>
+        <v>274.7564811182422</v>
       </c>
       <c r="S18" t="n">
-        <v>298.5645410824624</v>
+        <v>274.7564811182422</v>
       </c>
       <c r="T18" t="n">
-        <v>298.5645410824624</v>
+        <v>199.3613949863073</v>
       </c>
       <c r="U18" t="n">
-        <v>298.5645410824624</v>
+        <v>199.3613949863073</v>
       </c>
       <c r="V18" t="n">
-        <v>298.5645410824624</v>
+        <v>156.7614630855189</v>
       </c>
       <c r="W18" t="n">
-        <v>298.5645410824624</v>
+        <v>156.7614630855189</v>
       </c>
       <c r="X18" t="n">
-        <v>298.5645410824624</v>
+        <v>156.7614630855189</v>
       </c>
       <c r="Y18" t="n">
-        <v>298.5645410824624</v>
+        <v>156.7614630855189</v>
       </c>
     </row>
     <row r="19">
@@ -5649,76 +5649,76 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>5.971290821649247</v>
+        <v>5.971290821649238</v>
       </c>
       <c r="C19" t="n">
-        <v>5.971290821649247</v>
+        <v>5.971290821649238</v>
       </c>
       <c r="D19" t="n">
-        <v>5.971290821649247</v>
+        <v>5.971290821649238</v>
       </c>
       <c r="E19" t="n">
-        <v>5.971290821649247</v>
+        <v>5.971290821649238</v>
       </c>
       <c r="F19" t="n">
-        <v>5.971290821649247</v>
+        <v>5.971290821649238</v>
       </c>
       <c r="G19" t="n">
-        <v>5.971290821649247</v>
+        <v>5.971290821649238</v>
       </c>
       <c r="H19" t="n">
-        <v>5.971290821649247</v>
+        <v>5.971290821649238</v>
       </c>
       <c r="I19" t="n">
-        <v>5.971290821649247</v>
+        <v>5.971290821649238</v>
       </c>
       <c r="J19" t="n">
-        <v>5.971290821649247</v>
+        <v>5.971290821649238</v>
       </c>
       <c r="K19" t="n">
-        <v>5.971290821649247</v>
+        <v>5.971290821649238</v>
       </c>
       <c r="L19" t="n">
-        <v>5.971290821649247</v>
+        <v>5.971290821649238</v>
       </c>
       <c r="M19" t="n">
-        <v>5.971290821649247</v>
+        <v>5.971290821649238</v>
       </c>
       <c r="N19" t="n">
-        <v>5.971290821649247</v>
+        <v>5.971290821649238</v>
       </c>
       <c r="O19" t="n">
-        <v>5.971290821649247</v>
+        <v>5.971290821649238</v>
       </c>
       <c r="P19" t="n">
-        <v>5.971290821649247</v>
+        <v>5.971290821649238</v>
       </c>
       <c r="Q19" t="n">
-        <v>5.971290821649247</v>
+        <v>5.971290821649238</v>
       </c>
       <c r="R19" t="n">
-        <v>5.971290821649247</v>
+        <v>5.971290821649238</v>
       </c>
       <c r="S19" t="n">
-        <v>5.971290821649247</v>
+        <v>5.971290821649238</v>
       </c>
       <c r="T19" t="n">
-        <v>5.971290821649247</v>
+        <v>5.971290821649238</v>
       </c>
       <c r="U19" t="n">
-        <v>5.971290821649247</v>
+        <v>5.971290821649238</v>
       </c>
       <c r="V19" t="n">
-        <v>5.971290821649247</v>
+        <v>5.971290821649238</v>
       </c>
       <c r="W19" t="n">
-        <v>5.971290821649247</v>
+        <v>5.971290821649238</v>
       </c>
       <c r="X19" t="n">
-        <v>5.971290821649247</v>
+        <v>5.971290821649238</v>
       </c>
       <c r="Y19" t="n">
-        <v>5.971290821649247</v>
+        <v>5.971290821649238</v>
       </c>
     </row>
     <row r="20">
@@ -5728,76 +5728,76 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>156.7614630855192</v>
+        <v>81.36637695358407</v>
       </c>
       <c r="C20" t="n">
-        <v>156.7614630855192</v>
+        <v>81.36637695358407</v>
       </c>
       <c r="D20" t="n">
-        <v>156.7614630855192</v>
+        <v>81.36637695358407</v>
       </c>
       <c r="E20" t="n">
-        <v>81.36637695358419</v>
+        <v>81.36637695358407</v>
       </c>
       <c r="F20" t="n">
-        <v>5.971290821649247</v>
+        <v>5.971290821649238</v>
       </c>
       <c r="G20" t="n">
-        <v>5.971290821649247</v>
+        <v>5.971290821649238</v>
       </c>
       <c r="H20" t="n">
-        <v>5.971290821649247</v>
+        <v>5.971290821649238</v>
       </c>
       <c r="I20" t="n">
-        <v>5.971290821649247</v>
+        <v>5.971290821649238</v>
       </c>
       <c r="J20" t="n">
-        <v>5.971290821649247</v>
+        <v>5.971290821649238</v>
       </c>
       <c r="K20" t="n">
-        <v>5.971290821649247</v>
+        <v>5.971290821649238</v>
       </c>
       <c r="L20" t="n">
         <v>61.55639761142778</v>
       </c>
       <c r="M20" t="n">
-        <v>135.4511215293372</v>
+        <v>135.4511215293371</v>
       </c>
       <c r="N20" t="n">
-        <v>209.3458454472467</v>
+        <v>209.3458454472464</v>
       </c>
       <c r="O20" t="n">
-        <v>283.2405693651561</v>
+        <v>283.2405693651557</v>
       </c>
       <c r="P20" t="n">
-        <v>295.0252135253796</v>
+        <v>295.0252135253792</v>
       </c>
       <c r="Q20" t="n">
-        <v>232.1565492174541</v>
+        <v>224.465466214019</v>
       </c>
       <c r="R20" t="n">
-        <v>156.7614630855192</v>
+        <v>149.0703800820842</v>
       </c>
       <c r="S20" t="n">
-        <v>156.7614630855192</v>
+        <v>149.0703800820842</v>
       </c>
       <c r="T20" t="n">
-        <v>156.7614630855192</v>
+        <v>149.0703800820842</v>
       </c>
       <c r="U20" t="n">
-        <v>156.7614630855192</v>
+        <v>149.0703800820842</v>
       </c>
       <c r="V20" t="n">
-        <v>156.7614630855192</v>
+        <v>81.36637695358407</v>
       </c>
       <c r="W20" t="n">
-        <v>156.7614630855192</v>
+        <v>81.36637695358407</v>
       </c>
       <c r="X20" t="n">
-        <v>156.7614630855192</v>
+        <v>81.36637695358407</v>
       </c>
       <c r="Y20" t="n">
-        <v>156.7614630855192</v>
+        <v>81.36637695358407</v>
       </c>
     </row>
     <row r="21">
@@ -5807,76 +5807,76 @@
         </is>
       </c>
       <c r="B21" t="n">
-        <v>5.971290821649247</v>
+        <v>298.5645410824619</v>
       </c>
       <c r="C21" t="n">
-        <v>5.971290821649247</v>
+        <v>223.1694549505271</v>
       </c>
       <c r="D21" t="n">
-        <v>5.971290821649247</v>
+        <v>156.7614630855189</v>
       </c>
       <c r="E21" t="n">
-        <v>5.971290821649247</v>
+        <v>81.36637695358407</v>
       </c>
       <c r="F21" t="n">
-        <v>5.971290821649247</v>
+        <v>5.971290821649238</v>
       </c>
       <c r="G21" t="n">
-        <v>5.971290821649247</v>
+        <v>5.971290821649238</v>
       </c>
       <c r="H21" t="n">
-        <v>5.971290821649247</v>
+        <v>5.971290821649238</v>
       </c>
       <c r="I21" t="n">
-        <v>5.971290821649247</v>
+        <v>5.971290821649238</v>
       </c>
       <c r="J21" t="n">
-        <v>5.971290821649247</v>
+        <v>5.971290821649238</v>
       </c>
       <c r="K21" t="n">
-        <v>32.93330441565733</v>
+        <v>5.971290821649238</v>
       </c>
       <c r="L21" t="n">
-        <v>106.8280283335668</v>
+        <v>18.43873931046794</v>
       </c>
       <c r="M21" t="n">
-        <v>180.7227522514762</v>
+        <v>85.70977318285358</v>
       </c>
       <c r="N21" t="n">
-        <v>245.7880723152659</v>
+        <v>150.7750932466433</v>
       </c>
       <c r="O21" t="n">
-        <v>298.5645410824624</v>
+        <v>224.6698171645526</v>
       </c>
       <c r="P21" t="n">
-        <v>298.5645410824624</v>
+        <v>298.5645410824619</v>
       </c>
       <c r="Q21" t="n">
-        <v>274.7564811182426</v>
+        <v>298.5645410824619</v>
       </c>
       <c r="R21" t="n">
-        <v>274.7564811182426</v>
+        <v>298.5645410824619</v>
       </c>
       <c r="S21" t="n">
-        <v>199.3613949863077</v>
+        <v>298.5645410824619</v>
       </c>
       <c r="T21" t="n">
-        <v>123.9663088543727</v>
+        <v>298.5645410824619</v>
       </c>
       <c r="U21" t="n">
-        <v>123.9663088543727</v>
+        <v>298.5645410824619</v>
       </c>
       <c r="V21" t="n">
-        <v>48.5712227224378</v>
+        <v>298.5645410824619</v>
       </c>
       <c r="W21" t="n">
-        <v>48.5712227224378</v>
+        <v>298.5645410824619</v>
       </c>
       <c r="X21" t="n">
-        <v>48.5712227224378</v>
+        <v>298.5645410824619</v>
       </c>
       <c r="Y21" t="n">
-        <v>5.971290821649247</v>
+        <v>298.5645410824619</v>
       </c>
     </row>
     <row r="22">
@@ -5886,76 +5886,76 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>5.971290821649247</v>
+        <v>5.971290821649238</v>
       </c>
       <c r="C22" t="n">
-        <v>5.971290821649247</v>
+        <v>5.971290821649238</v>
       </c>
       <c r="D22" t="n">
-        <v>5.971290821649247</v>
+        <v>5.971290821649238</v>
       </c>
       <c r="E22" t="n">
-        <v>5.971290821649247</v>
+        <v>5.971290821649238</v>
       </c>
       <c r="F22" t="n">
-        <v>5.971290821649247</v>
+        <v>5.971290821649238</v>
       </c>
       <c r="G22" t="n">
-        <v>5.971290821649247</v>
+        <v>5.971290821649238</v>
       </c>
       <c r="H22" t="n">
-        <v>5.971290821649247</v>
+        <v>5.971290821649238</v>
       </c>
       <c r="I22" t="n">
-        <v>5.971290821649247</v>
+        <v>5.971290821649238</v>
       </c>
       <c r="J22" t="n">
-        <v>5.971290821649247</v>
+        <v>5.971290821649238</v>
       </c>
       <c r="K22" t="n">
-        <v>5.971290821649247</v>
+        <v>5.971290821649238</v>
       </c>
       <c r="L22" t="n">
-        <v>5.971290821649247</v>
+        <v>5.971290821649238</v>
       </c>
       <c r="M22" t="n">
-        <v>5.971290821649247</v>
+        <v>5.971290821649238</v>
       </c>
       <c r="N22" t="n">
-        <v>5.971290821649247</v>
+        <v>5.971290821649238</v>
       </c>
       <c r="O22" t="n">
-        <v>5.971290821649247</v>
+        <v>5.971290821649238</v>
       </c>
       <c r="P22" t="n">
-        <v>5.971290821649247</v>
+        <v>5.971290821649238</v>
       </c>
       <c r="Q22" t="n">
-        <v>5.971290821649247</v>
+        <v>5.971290821649238</v>
       </c>
       <c r="R22" t="n">
-        <v>5.971290821649247</v>
+        <v>5.971290821649238</v>
       </c>
       <c r="S22" t="n">
-        <v>5.971290821649247</v>
+        <v>5.971290821649238</v>
       </c>
       <c r="T22" t="n">
-        <v>5.971290821649247</v>
+        <v>5.971290821649238</v>
       </c>
       <c r="U22" t="n">
-        <v>5.971290821649247</v>
+        <v>5.971290821649238</v>
       </c>
       <c r="V22" t="n">
-        <v>5.971290821649247</v>
+        <v>5.971290821649238</v>
       </c>
       <c r="W22" t="n">
-        <v>5.971290821649247</v>
+        <v>5.971290821649238</v>
       </c>
       <c r="X22" t="n">
-        <v>5.971290821649247</v>
+        <v>5.971290821649238</v>
       </c>
       <c r="Y22" t="n">
-        <v>5.971290821649247</v>
+        <v>5.971290821649238</v>
       </c>
     </row>
     <row r="23">
@@ -5965,25 +5965,25 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>221.1562405676258</v>
+        <v>114.7902149002413</v>
       </c>
       <c r="C23" t="n">
-        <v>221.1562405676258</v>
+        <v>114.7902149002413</v>
       </c>
       <c r="D23" t="n">
-        <v>221.1562405676258</v>
+        <v>114.7902149002413</v>
       </c>
       <c r="E23" t="n">
-        <v>221.1562405676258</v>
+        <v>114.7902149002413</v>
       </c>
       <c r="F23" t="n">
-        <v>221.1562405676258</v>
+        <v>8.42418923285685</v>
       </c>
       <c r="G23" t="n">
-        <v>221.1562405676258</v>
+        <v>8.42418923285685</v>
       </c>
       <c r="H23" t="n">
-        <v>114.7902149002413</v>
+        <v>8.42418923285685</v>
       </c>
       <c r="I23" t="n">
         <v>8.42418923285685</v>
@@ -6013,28 +6013,28 @@
         <v>327.5222662350102</v>
       </c>
       <c r="R23" t="n">
-        <v>327.5222662350102</v>
+        <v>221.1562405676258</v>
       </c>
       <c r="S23" t="n">
-        <v>327.5222662350102</v>
+        <v>221.1562405676258</v>
       </c>
       <c r="T23" t="n">
-        <v>327.5222662350102</v>
+        <v>221.1562405676258</v>
       </c>
       <c r="U23" t="n">
-        <v>327.5222662350102</v>
+        <v>221.1562405676258</v>
       </c>
       <c r="V23" t="n">
-        <v>327.5222662350102</v>
+        <v>114.7902149002413</v>
       </c>
       <c r="W23" t="n">
-        <v>221.1562405676258</v>
+        <v>114.7902149002413</v>
       </c>
       <c r="X23" t="n">
-        <v>221.1562405676258</v>
+        <v>114.7902149002413</v>
       </c>
       <c r="Y23" t="n">
-        <v>221.1562405676258</v>
+        <v>114.7902149002413</v>
       </c>
     </row>
     <row r="24">
@@ -6044,25 +6044,25 @@
         </is>
       </c>
       <c r="B24" t="n">
-        <v>114.7902149002413</v>
+        <v>421.2094616428425</v>
       </c>
       <c r="C24" t="n">
-        <v>114.7902149002413</v>
+        <v>421.2094616428425</v>
       </c>
       <c r="D24" t="n">
-        <v>114.7902149002413</v>
+        <v>314.843435975458</v>
       </c>
       <c r="E24" t="n">
-        <v>114.7902149002413</v>
+        <v>314.843435975458</v>
       </c>
       <c r="F24" t="n">
-        <v>114.7902149002413</v>
+        <v>208.4774103080736</v>
       </c>
       <c r="G24" t="n">
-        <v>114.7902149002413</v>
+        <v>102.1113846406891</v>
       </c>
       <c r="H24" t="n">
-        <v>114.7902149002413</v>
+        <v>102.1113846406891</v>
       </c>
       <c r="I24" t="n">
         <v>8.42418923285685</v>
@@ -6077,10 +6077,10 @@
         <v>139.6355445834685</v>
       </c>
       <c r="M24" t="n">
-        <v>182.4938886203054</v>
+        <v>243.884886340072</v>
       </c>
       <c r="N24" t="n">
-        <v>286.743230376909</v>
+        <v>318.7957172328375</v>
       </c>
       <c r="O24" t="n">
         <v>345.8213230710519</v>
@@ -6107,13 +6107,13 @@
         <v>421.2094616428425</v>
       </c>
       <c r="W24" t="n">
-        <v>327.5222662350102</v>
+        <v>421.2094616428425</v>
       </c>
       <c r="X24" t="n">
-        <v>221.1562405676258</v>
+        <v>421.2094616428425</v>
       </c>
       <c r="Y24" t="n">
-        <v>114.7902149002413</v>
+        <v>421.2094616428425</v>
       </c>
     </row>
     <row r="25">
@@ -6202,19 +6202,19 @@
         </is>
       </c>
       <c r="B26" t="n">
+        <v>327.5222662350102</v>
+      </c>
+      <c r="C26" t="n">
+        <v>327.5222662350102</v>
+      </c>
+      <c r="D26" t="n">
+        <v>327.5222662350102</v>
+      </c>
+      <c r="E26" t="n">
+        <v>221.1562405676258</v>
+      </c>
+      <c r="F26" t="n">
         <v>114.7902149002413</v>
-      </c>
-      <c r="C26" t="n">
-        <v>8.42418923285685</v>
-      </c>
-      <c r="D26" t="n">
-        <v>8.42418923285685</v>
-      </c>
-      <c r="E26" t="n">
-        <v>8.42418923285685</v>
-      </c>
-      <c r="F26" t="n">
-        <v>8.42418923285685</v>
       </c>
       <c r="G26" t="n">
         <v>8.42418923285685</v>
@@ -6247,31 +6247,31 @@
         <v>358.1873476139753</v>
       </c>
       <c r="Q26" t="n">
-        <v>287.6276003026151</v>
+        <v>358.1873476139753</v>
       </c>
       <c r="R26" t="n">
-        <v>181.2615746352307</v>
+        <v>358.1873476139753</v>
       </c>
       <c r="S26" t="n">
-        <v>181.2615746352307</v>
+        <v>358.1873476139753</v>
       </c>
       <c r="T26" t="n">
-        <v>181.2615746352307</v>
+        <v>358.1873476139753</v>
       </c>
       <c r="U26" t="n">
-        <v>181.2615746352307</v>
+        <v>358.1873476139753</v>
       </c>
       <c r="V26" t="n">
-        <v>181.2615746352307</v>
+        <v>327.5222662350102</v>
       </c>
       <c r="W26" t="n">
-        <v>181.2615746352307</v>
+        <v>327.5222662350102</v>
       </c>
       <c r="X26" t="n">
-        <v>181.2615746352307</v>
+        <v>327.5222662350102</v>
       </c>
       <c r="Y26" t="n">
-        <v>181.2615746352307</v>
+        <v>327.5222662350102</v>
       </c>
     </row>
     <row r="27">
@@ -6287,16 +6287,16 @@
         <v>314.843435975458</v>
       </c>
       <c r="D27" t="n">
-        <v>314.843435975458</v>
+        <v>208.4774103080736</v>
       </c>
       <c r="E27" t="n">
         <v>208.4774103080736</v>
       </c>
       <c r="F27" t="n">
-        <v>208.4774103080736</v>
+        <v>102.1113846406891</v>
       </c>
       <c r="G27" t="n">
-        <v>102.1113846406891</v>
+        <v>8.42418923285685</v>
       </c>
       <c r="H27" t="n">
         <v>8.42418923285685</v>
@@ -6314,13 +6314,13 @@
         <v>139.6355445834685</v>
       </c>
       <c r="M27" t="n">
-        <v>214.546375476234</v>
+        <v>243.884886340072</v>
       </c>
       <c r="N27" t="n">
-        <v>318.7957172328375</v>
+        <v>316.960119886239</v>
       </c>
       <c r="O27" t="n">
-        <v>345.8213230710519</v>
+        <v>421.2094616428425</v>
       </c>
       <c r="P27" t="n">
         <v>421.2094616428425</v>
@@ -6332,13 +6332,13 @@
         <v>421.2094616428425</v>
       </c>
       <c r="S27" t="n">
-        <v>421.2094616428425</v>
+        <v>314.843435975458</v>
       </c>
       <c r="T27" t="n">
-        <v>421.2094616428425</v>
+        <v>314.843435975458</v>
       </c>
       <c r="U27" t="n">
-        <v>421.2094616428425</v>
+        <v>314.843435975458</v>
       </c>
       <c r="V27" t="n">
         <v>314.843435975458</v>
@@ -6439,10 +6439,10 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>145.4552962792064</v>
+        <v>8.42418923285685</v>
       </c>
       <c r="C29" t="n">
-        <v>39.0892706118219</v>
+        <v>8.42418923285685</v>
       </c>
       <c r="D29" t="n">
         <v>8.42418923285685</v>
@@ -6499,16 +6499,16 @@
         <v>358.1873476139753</v>
       </c>
       <c r="V29" t="n">
-        <v>358.1873476139753</v>
+        <v>251.8213219465908</v>
       </c>
       <c r="W29" t="n">
-        <v>358.1873476139753</v>
+        <v>145.4552962792064</v>
       </c>
       <c r="X29" t="n">
-        <v>358.1873476139753</v>
+        <v>145.4552962792064</v>
       </c>
       <c r="Y29" t="n">
-        <v>251.8213219465908</v>
+        <v>39.0892706118219</v>
       </c>
     </row>
     <row r="30">
@@ -6518,16 +6518,16 @@
         </is>
       </c>
       <c r="B30" t="n">
-        <v>221.1562405676258</v>
+        <v>291.0353760112383</v>
       </c>
       <c r="C30" t="n">
-        <v>221.1562405676258</v>
+        <v>184.6693503438538</v>
       </c>
       <c r="D30" t="n">
-        <v>221.1562405676258</v>
+        <v>184.6693503438538</v>
       </c>
       <c r="E30" t="n">
-        <v>221.1562405676258</v>
+        <v>114.7902149002413</v>
       </c>
       <c r="F30" t="n">
         <v>114.7902149002413</v>
@@ -6548,46 +6548,46 @@
         <v>35.38620282686493</v>
       </c>
       <c r="L30" t="n">
-        <v>94.46429552100795</v>
+        <v>139.6355445834685</v>
       </c>
       <c r="M30" t="n">
-        <v>137.3226395578449</v>
+        <v>243.884886340072</v>
       </c>
       <c r="N30" t="n">
-        <v>241.5719813144484</v>
+        <v>316.960119886239</v>
       </c>
       <c r="O30" t="n">
-        <v>345.8213230710519</v>
+        <v>421.2094616428425</v>
       </c>
       <c r="P30" t="n">
         <v>421.2094616428425</v>
       </c>
       <c r="Q30" t="n">
-        <v>421.2094616428425</v>
+        <v>397.4014016786227</v>
       </c>
       <c r="R30" t="n">
-        <v>421.2094616428425</v>
+        <v>291.0353760112383</v>
       </c>
       <c r="S30" t="n">
-        <v>421.2094616428425</v>
+        <v>291.0353760112383</v>
       </c>
       <c r="T30" t="n">
-        <v>314.843435975458</v>
+        <v>291.0353760112383</v>
       </c>
       <c r="U30" t="n">
-        <v>314.843435975458</v>
+        <v>291.0353760112383</v>
       </c>
       <c r="V30" t="n">
-        <v>314.843435975458</v>
+        <v>291.0353760112383</v>
       </c>
       <c r="W30" t="n">
-        <v>314.843435975458</v>
+        <v>291.0353760112383</v>
       </c>
       <c r="X30" t="n">
-        <v>314.843435975458</v>
+        <v>291.0353760112383</v>
       </c>
       <c r="Y30" t="n">
-        <v>314.843435975458</v>
+        <v>291.0353760112383</v>
       </c>
     </row>
     <row r="31">
@@ -6676,13 +6676,13 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>8.42418923285685</v>
+        <v>181.2615746352307</v>
       </c>
       <c r="C32" t="n">
-        <v>8.42418923285685</v>
+        <v>114.7902149002413</v>
       </c>
       <c r="D32" t="n">
-        <v>8.42418923285685</v>
+        <v>114.7902149002413</v>
       </c>
       <c r="E32" t="n">
         <v>8.42418923285685</v>
@@ -6721,31 +6721,31 @@
         <v>358.1873476139753</v>
       </c>
       <c r="Q32" t="n">
-        <v>358.1873476139753</v>
+        <v>287.6276003026151</v>
       </c>
       <c r="R32" t="n">
-        <v>358.1873476139753</v>
+        <v>181.2615746352307</v>
       </c>
       <c r="S32" t="n">
-        <v>358.1873476139753</v>
+        <v>181.2615746352307</v>
       </c>
       <c r="T32" t="n">
-        <v>358.1873476139753</v>
+        <v>181.2615746352307</v>
       </c>
       <c r="U32" t="n">
-        <v>358.1873476139753</v>
+        <v>181.2615746352307</v>
       </c>
       <c r="V32" t="n">
-        <v>251.8213219465908</v>
+        <v>181.2615746352307</v>
       </c>
       <c r="W32" t="n">
-        <v>145.4552962792064</v>
+        <v>181.2615746352307</v>
       </c>
       <c r="X32" t="n">
-        <v>39.0892706118219</v>
+        <v>181.2615746352307</v>
       </c>
       <c r="Y32" t="n">
-        <v>8.42418923285685</v>
+        <v>181.2615746352307</v>
       </c>
     </row>
     <row r="33">
@@ -6755,25 +6755,25 @@
         </is>
       </c>
       <c r="B33" t="n">
-        <v>208.4774103080736</v>
+        <v>8.42418923285685</v>
       </c>
       <c r="C33" t="n">
-        <v>208.4774103080736</v>
+        <v>8.42418923285685</v>
       </c>
       <c r="D33" t="n">
-        <v>208.4774103080736</v>
+        <v>8.42418923285685</v>
       </c>
       <c r="E33" t="n">
-        <v>208.4774103080736</v>
+        <v>8.42418923285685</v>
       </c>
       <c r="F33" t="n">
-        <v>208.4774103080736</v>
+        <v>8.42418923285685</v>
       </c>
       <c r="G33" t="n">
-        <v>208.4774103080736</v>
+        <v>8.42418923285685</v>
       </c>
       <c r="H33" t="n">
-        <v>114.7902149002413</v>
+        <v>8.42418923285685</v>
       </c>
       <c r="I33" t="n">
         <v>8.42418923285685</v>
@@ -6788,13 +6788,13 @@
         <v>139.6355445834685</v>
       </c>
       <c r="M33" t="n">
-        <v>243.884886340072</v>
+        <v>182.4938886203054</v>
       </c>
       <c r="N33" t="n">
-        <v>318.7957172328375</v>
+        <v>286.743230376909</v>
       </c>
       <c r="O33" t="n">
-        <v>345.8213230710519</v>
+        <v>390.9925721335125</v>
       </c>
       <c r="P33" t="n">
         <v>421.2094616428425</v>
@@ -6809,22 +6809,22 @@
         <v>421.2094616428425</v>
       </c>
       <c r="T33" t="n">
-        <v>421.2094616428425</v>
+        <v>314.843435975458</v>
       </c>
       <c r="U33" t="n">
-        <v>421.2094616428425</v>
+        <v>208.4774103080736</v>
       </c>
       <c r="V33" t="n">
-        <v>421.2094616428425</v>
+        <v>208.4774103080736</v>
       </c>
       <c r="W33" t="n">
-        <v>314.843435975458</v>
+        <v>102.1113846406891</v>
       </c>
       <c r="X33" t="n">
-        <v>314.843435975458</v>
+        <v>102.1113846406891</v>
       </c>
       <c r="Y33" t="n">
-        <v>314.843435975458</v>
+        <v>102.1113846406891</v>
       </c>
     </row>
     <row r="34">
@@ -6913,31 +6913,31 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>144.2350412615096</v>
+        <v>7.929662071301594</v>
       </c>
       <c r="C35" t="n">
-        <v>144.2350412615096</v>
+        <v>7.929662071301594</v>
       </c>
       <c r="D35" t="n">
-        <v>144.2350412615096</v>
+        <v>7.929662071301594</v>
       </c>
       <c r="E35" t="n">
-        <v>144.2350412615096</v>
+        <v>7.929662071301594</v>
       </c>
       <c r="F35" t="n">
-        <v>144.2350412615096</v>
+        <v>7.929662071301594</v>
       </c>
       <c r="G35" t="n">
-        <v>144.2350412615096</v>
+        <v>7.929662071301594</v>
       </c>
       <c r="H35" t="n">
-        <v>144.2350412615096</v>
+        <v>7.929662071301594</v>
       </c>
       <c r="I35" t="n">
-        <v>70.18607746303795</v>
+        <v>7.929662071301594</v>
       </c>
       <c r="J35" t="n">
-        <v>5.971290821649238</v>
+        <v>7.929662071301594</v>
       </c>
       <c r="K35" t="n">
         <v>5.971290821649238</v>
@@ -6958,31 +6958,31 @@
         <v>295.0252135253792</v>
       </c>
       <c r="Q35" t="n">
-        <v>295.0252135253792</v>
+        <v>224.465466214019</v>
       </c>
       <c r="R35" t="n">
-        <v>295.0252135253792</v>
+        <v>149.0703800820842</v>
       </c>
       <c r="S35" t="n">
-        <v>295.0252135253792</v>
+        <v>149.0703800820842</v>
       </c>
       <c r="T35" t="n">
-        <v>295.0252135253792</v>
+        <v>149.0703800820842</v>
       </c>
       <c r="U35" t="n">
-        <v>295.0252135253792</v>
+        <v>73.6752939501494</v>
       </c>
       <c r="V35" t="n">
-        <v>295.0252135253792</v>
+        <v>7.929662071301594</v>
       </c>
       <c r="W35" t="n">
-        <v>295.0252135253792</v>
+        <v>7.929662071301594</v>
       </c>
       <c r="X35" t="n">
-        <v>219.6301273934444</v>
+        <v>7.929662071301594</v>
       </c>
       <c r="Y35" t="n">
-        <v>144.2350412615096</v>
+        <v>7.929662071301594</v>
       </c>
     </row>
     <row r="36">
@@ -6992,37 +6992,37 @@
         </is>
       </c>
       <c r="B36" t="n">
-        <v>65.63207394600603</v>
+        <v>48.57122272243768</v>
       </c>
       <c r="C36" t="n">
-        <v>65.63207394600603</v>
+        <v>48.57122272243768</v>
       </c>
       <c r="D36" t="n">
-        <v>65.63207394600603</v>
+        <v>5.971290821649238</v>
       </c>
       <c r="E36" t="n">
-        <v>65.63207394600603</v>
+        <v>5.971290821649238</v>
       </c>
       <c r="F36" t="n">
-        <v>65.63207394600603</v>
+        <v>5.971290821649238</v>
       </c>
       <c r="G36" t="n">
-        <v>65.63207394600603</v>
+        <v>5.971290821649238</v>
       </c>
       <c r="H36" t="n">
-        <v>65.63207394600603</v>
+        <v>5.971290821649238</v>
       </c>
       <c r="I36" t="n">
-        <v>65.63207394600603</v>
+        <v>5.971290821649238</v>
       </c>
       <c r="J36" t="n">
         <v>5.971290821649238</v>
       </c>
       <c r="K36" t="n">
-        <v>32.93330441565733</v>
+        <v>5.971290821649238</v>
       </c>
       <c r="L36" t="n">
-        <v>89.72054722571147</v>
+        <v>58.68416734463912</v>
       </c>
       <c r="M36" t="n">
         <v>132.5788912625484</v>
@@ -7037,31 +7037,31 @@
         <v>298.5645410824619</v>
       </c>
       <c r="Q36" t="n">
-        <v>298.5645410824619</v>
+        <v>274.7564811182422</v>
       </c>
       <c r="R36" t="n">
-        <v>298.5645410824619</v>
+        <v>274.7564811182422</v>
       </c>
       <c r="S36" t="n">
-        <v>298.5645410824619</v>
+        <v>274.7564811182422</v>
       </c>
       <c r="T36" t="n">
-        <v>298.5645410824619</v>
+        <v>274.7564811182422</v>
       </c>
       <c r="U36" t="n">
-        <v>298.5645410824619</v>
+        <v>199.3613949863073</v>
       </c>
       <c r="V36" t="n">
-        <v>298.5645410824619</v>
+        <v>123.9663088543725</v>
       </c>
       <c r="W36" t="n">
-        <v>223.1694549505271</v>
+        <v>48.57122272243768</v>
       </c>
       <c r="X36" t="n">
-        <v>216.4222462098757</v>
+        <v>48.57122272243768</v>
       </c>
       <c r="Y36" t="n">
-        <v>141.0271600779409</v>
+        <v>48.57122272243768</v>
       </c>
     </row>
     <row r="37">
@@ -7150,19 +7150,19 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>5.971290821649238</v>
+        <v>156.7614630855189</v>
       </c>
       <c r="C38" t="n">
-        <v>5.971290821649238</v>
+        <v>156.7614630855189</v>
       </c>
       <c r="D38" t="n">
-        <v>5.971290821649238</v>
+        <v>156.7614630855189</v>
       </c>
       <c r="E38" t="n">
-        <v>5.971290821649238</v>
+        <v>156.7614630855189</v>
       </c>
       <c r="F38" t="n">
-        <v>5.971290821649238</v>
+        <v>81.36637695358407</v>
       </c>
       <c r="G38" t="n">
         <v>5.971290821649238</v>
@@ -7198,13 +7198,13 @@
         <v>295.0252135253792</v>
       </c>
       <c r="R38" t="n">
-        <v>232.1565492174537</v>
+        <v>295.0252135253792</v>
       </c>
       <c r="S38" t="n">
-        <v>232.1565492174537</v>
+        <v>295.0252135253792</v>
       </c>
       <c r="T38" t="n">
-        <v>232.1565492174537</v>
+        <v>295.0252135253792</v>
       </c>
       <c r="U38" t="n">
         <v>232.1565492174537</v>
@@ -7213,13 +7213,13 @@
         <v>232.1565492174537</v>
       </c>
       <c r="W38" t="n">
+        <v>232.1565492174537</v>
+      </c>
+      <c r="X38" t="n">
+        <v>232.1565492174537</v>
+      </c>
+      <c r="Y38" t="n">
         <v>156.7614630855189</v>
-      </c>
-      <c r="X38" t="n">
-        <v>81.36637695358407</v>
-      </c>
-      <c r="Y38" t="n">
-        <v>5.971290821649238</v>
       </c>
     </row>
     <row r="39">
@@ -7229,16 +7229,16 @@
         </is>
       </c>
       <c r="B39" t="n">
-        <v>199.3613949863073</v>
+        <v>81.36637695358407</v>
       </c>
       <c r="C39" t="n">
-        <v>123.9663088543725</v>
+        <v>81.36637695358407</v>
       </c>
       <c r="D39" t="n">
-        <v>123.9663088543725</v>
+        <v>81.36637695358407</v>
       </c>
       <c r="E39" t="n">
-        <v>48.57122272243768</v>
+        <v>81.36637695358407</v>
       </c>
       <c r="F39" t="n">
         <v>5.971290821649238</v>
@@ -7256,49 +7256,49 @@
         <v>5.971290821649238</v>
       </c>
       <c r="K39" t="n">
-        <v>32.93330441565733</v>
+        <v>5.971290821649238</v>
       </c>
       <c r="L39" t="n">
-        <v>45.40075290447603</v>
+        <v>79.86601473955855</v>
       </c>
       <c r="M39" t="n">
-        <v>119.2954768223854</v>
+        <v>153.7607386574679</v>
       </c>
       <c r="N39" t="n">
-        <v>193.1902007402947</v>
+        <v>227.6554625753772</v>
       </c>
       <c r="O39" t="n">
-        <v>224.6698171645526</v>
+        <v>298.5645410824619</v>
       </c>
       <c r="P39" t="n">
         <v>298.5645410824619</v>
       </c>
       <c r="Q39" t="n">
-        <v>274.7564811182422</v>
+        <v>298.5645410824619</v>
       </c>
       <c r="R39" t="n">
-        <v>274.7564811182422</v>
+        <v>298.5645410824619</v>
       </c>
       <c r="S39" t="n">
-        <v>274.7564811182422</v>
+        <v>298.5645410824619</v>
       </c>
       <c r="T39" t="n">
-        <v>274.7564811182422</v>
+        <v>298.5645410824619</v>
       </c>
       <c r="U39" t="n">
-        <v>274.7564811182422</v>
+        <v>223.1694549505271</v>
       </c>
       <c r="V39" t="n">
-        <v>274.7564811182422</v>
+        <v>223.1694549505271</v>
       </c>
       <c r="W39" t="n">
-        <v>199.3613949863073</v>
+        <v>147.7743688185923</v>
       </c>
       <c r="X39" t="n">
-        <v>199.3613949863073</v>
+        <v>147.7743688185923</v>
       </c>
       <c r="Y39" t="n">
-        <v>199.3613949863073</v>
+        <v>147.7743688185923</v>
       </c>
     </row>
     <row r="40">
@@ -7387,31 +7387,31 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>83.32474820323642</v>
+        <v>68.83995512957476</v>
       </c>
       <c r="C41" t="n">
-        <v>83.32474820323642</v>
+        <v>68.83995512957476</v>
       </c>
       <c r="D41" t="n">
-        <v>83.32474820323642</v>
+        <v>68.83995512957476</v>
       </c>
       <c r="E41" t="n">
-        <v>83.32474820323642</v>
+        <v>68.83995512957476</v>
       </c>
       <c r="F41" t="n">
-        <v>7.929662071301594</v>
+        <v>68.83995512957476</v>
       </c>
       <c r="G41" t="n">
-        <v>7.929662071301594</v>
+        <v>5.971290821649238</v>
       </c>
       <c r="H41" t="n">
-        <v>7.929662071301594</v>
+        <v>5.971290821649238</v>
       </c>
       <c r="I41" t="n">
-        <v>7.929662071301594</v>
+        <v>5.971290821649238</v>
       </c>
       <c r="J41" t="n">
-        <v>7.929662071301594</v>
+        <v>5.971290821649238</v>
       </c>
       <c r="K41" t="n">
         <v>5.971290821649238</v>
@@ -7432,31 +7432,31 @@
         <v>295.0252135253792</v>
       </c>
       <c r="Q41" t="n">
-        <v>234.1149204671061</v>
+        <v>295.0252135253792</v>
       </c>
       <c r="R41" t="n">
-        <v>234.1149204671061</v>
+        <v>295.0252135253792</v>
       </c>
       <c r="S41" t="n">
-        <v>234.1149204671061</v>
+        <v>295.0252135253792</v>
       </c>
       <c r="T41" t="n">
-        <v>234.1149204671061</v>
+        <v>219.6301273934444</v>
       </c>
       <c r="U41" t="n">
-        <v>234.1149204671061</v>
+        <v>144.2350412615096</v>
       </c>
       <c r="V41" t="n">
-        <v>234.1149204671061</v>
+        <v>68.83995512957476</v>
       </c>
       <c r="W41" t="n">
-        <v>234.1149204671061</v>
+        <v>68.83995512957476</v>
       </c>
       <c r="X41" t="n">
-        <v>234.1149204671061</v>
+        <v>68.83995512957476</v>
       </c>
       <c r="Y41" t="n">
-        <v>158.7198343351712</v>
+        <v>68.83995512957476</v>
       </c>
     </row>
     <row r="42">
@@ -7466,19 +7466,19 @@
         </is>
       </c>
       <c r="B42" t="n">
-        <v>223.1694549505271</v>
+        <v>156.7614630855189</v>
       </c>
       <c r="C42" t="n">
-        <v>223.1694549505271</v>
+        <v>156.7614630855189</v>
       </c>
       <c r="D42" t="n">
-        <v>147.7743688185923</v>
+        <v>156.7614630855189</v>
       </c>
       <c r="E42" t="n">
-        <v>72.37928268665745</v>
+        <v>81.36637695358407</v>
       </c>
       <c r="F42" t="n">
-        <v>5.971290821649238</v>
+        <v>81.36637695358407</v>
       </c>
       <c r="G42" t="n">
         <v>5.971290821649238</v>
@@ -7493,19 +7493,19 @@
         <v>5.971290821649238</v>
       </c>
       <c r="K42" t="n">
-        <v>5.971290821649238</v>
+        <v>32.93330441565733</v>
       </c>
       <c r="L42" t="n">
-        <v>79.86601473955855</v>
+        <v>106.8280283335666</v>
       </c>
       <c r="M42" t="n">
-        <v>132.5788912625484</v>
+        <v>180.722752251476</v>
       </c>
       <c r="N42" t="n">
-        <v>197.6442113263381</v>
+        <v>254.6174761693853</v>
       </c>
       <c r="O42" t="n">
-        <v>224.6698171645526</v>
+        <v>298.5645410824619</v>
       </c>
       <c r="P42" t="n">
         <v>298.5645410824619</v>
@@ -7526,16 +7526,16 @@
         <v>298.5645410824619</v>
       </c>
       <c r="V42" t="n">
-        <v>298.5645410824619</v>
+        <v>223.1694549505271</v>
       </c>
       <c r="W42" t="n">
-        <v>298.5645410824619</v>
+        <v>156.7614630855189</v>
       </c>
       <c r="X42" t="n">
-        <v>298.5645410824619</v>
+        <v>156.7614630855189</v>
       </c>
       <c r="Y42" t="n">
-        <v>223.1694549505271</v>
+        <v>156.7614630855189</v>
       </c>
     </row>
     <row r="43">
@@ -7624,19 +7624,19 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>149.0703800820842</v>
+        <v>5.971290821649238</v>
       </c>
       <c r="C44" t="n">
-        <v>149.0703800820842</v>
+        <v>5.971290821649238</v>
       </c>
       <c r="D44" t="n">
-        <v>149.0703800820842</v>
+        <v>5.971290821649238</v>
       </c>
       <c r="E44" t="n">
-        <v>149.0703800820842</v>
+        <v>5.971290821649238</v>
       </c>
       <c r="F44" t="n">
-        <v>73.6752939501494</v>
+        <v>5.971290821649238</v>
       </c>
       <c r="G44" t="n">
         <v>5.971290821649238</v>
@@ -7669,31 +7669,31 @@
         <v>295.0252135253792</v>
       </c>
       <c r="Q44" t="n">
-        <v>224.465466214019</v>
+        <v>295.0252135253792</v>
       </c>
       <c r="R44" t="n">
-        <v>149.0703800820842</v>
+        <v>295.0252135253792</v>
       </c>
       <c r="S44" t="n">
-        <v>149.0703800820842</v>
+        <v>295.0252135253792</v>
       </c>
       <c r="T44" t="n">
-        <v>149.0703800820842</v>
+        <v>295.0252135253792</v>
       </c>
       <c r="U44" t="n">
-        <v>149.0703800820842</v>
+        <v>219.6301273934444</v>
       </c>
       <c r="V44" t="n">
-        <v>149.0703800820842</v>
+        <v>144.2350412615096</v>
       </c>
       <c r="W44" t="n">
-        <v>149.0703800820842</v>
+        <v>68.83995512957476</v>
       </c>
       <c r="X44" t="n">
-        <v>149.0703800820842</v>
+        <v>5.971290821649238</v>
       </c>
       <c r="Y44" t="n">
-        <v>149.0703800820842</v>
+        <v>5.971290821649238</v>
       </c>
     </row>
     <row r="45">
@@ -7703,16 +7703,16 @@
         </is>
       </c>
       <c r="B45" t="n">
-        <v>72.37928268665745</v>
+        <v>147.7743688185923</v>
       </c>
       <c r="C45" t="n">
-        <v>72.37928268665745</v>
+        <v>147.7743688185923</v>
       </c>
       <c r="D45" t="n">
-        <v>72.37928268665745</v>
+        <v>147.7743688185923</v>
       </c>
       <c r="E45" t="n">
-        <v>72.37928268665745</v>
+        <v>147.7743688185923</v>
       </c>
       <c r="F45" t="n">
         <v>72.37928268665745</v>
@@ -7733,16 +7733,16 @@
         <v>32.93330441565733</v>
       </c>
       <c r="L45" t="n">
-        <v>106.8280283335666</v>
+        <v>45.40075290447603</v>
       </c>
       <c r="M45" t="n">
-        <v>159.6044971007629</v>
+        <v>119.2954768223854</v>
       </c>
       <c r="N45" t="n">
+        <v>184.3607968861751</v>
+      </c>
+      <c r="O45" t="n">
         <v>224.6698171645526</v>
-      </c>
-      <c r="O45" t="n">
-        <v>298.5645410824619</v>
       </c>
       <c r="P45" t="n">
         <v>298.5645410824619</v>
@@ -7757,22 +7757,22 @@
         <v>298.5645410824619</v>
       </c>
       <c r="T45" t="n">
+        <v>298.5645410824619</v>
+      </c>
+      <c r="U45" t="n">
         <v>223.1694549505271</v>
       </c>
-      <c r="U45" t="n">
-        <v>147.7743688185923</v>
-      </c>
       <c r="V45" t="n">
-        <v>147.7743688185923</v>
+        <v>223.1694549505271</v>
       </c>
       <c r="W45" t="n">
-        <v>72.37928268665745</v>
+        <v>223.1694549505271</v>
       </c>
       <c r="X45" t="n">
-        <v>72.37928268665745</v>
+        <v>223.1694549505271</v>
       </c>
       <c r="Y45" t="n">
-        <v>72.37928268665745</v>
+        <v>223.1694549505271</v>
       </c>
     </row>
     <row r="46">
@@ -8549,7 +8549,7 @@
         <v>50.30088672752632</v>
       </c>
       <c r="P9" t="n">
-        <v>68.93110769910051</v>
+        <v>68.93110769910052</v>
       </c>
       <c r="Q9" t="n">
         <v>54.62009481132077</v>
@@ -8698,13 +8698,13 @@
         <v>108.5919157831171</v>
       </c>
       <c r="M11" t="n">
-        <v>86.21228856804143</v>
+        <v>86.21228856804132</v>
       </c>
       <c r="N11" t="n">
-        <v>79.58366863874986</v>
+        <v>79.58366863874974</v>
       </c>
       <c r="O11" t="n">
-        <v>99.0080471283139</v>
+        <v>99.00804712831379</v>
       </c>
       <c r="P11" t="n">
         <v>83.66766412458549</v>
@@ -8771,22 +8771,22 @@
         <v>32.78366918850629</v>
       </c>
       <c r="K12" t="n">
-        <v>68.76096162327045</v>
+        <v>41.52660445760571</v>
       </c>
       <c r="L12" t="n">
-        <v>0</v>
+        <v>62.04775295867739</v>
       </c>
       <c r="M12" t="n">
-        <v>0</v>
+        <v>31.34987866774986</v>
       </c>
       <c r="N12" t="n">
         <v>0</v>
       </c>
       <c r="O12" t="n">
-        <v>44.76746901134928</v>
+        <v>47.3425435148433</v>
       </c>
       <c r="P12" t="n">
-        <v>81.29182019599872</v>
+        <v>12.55347123174172</v>
       </c>
       <c r="Q12" t="n">
         <v>54.62009481132077</v>
@@ -8935,13 +8935,13 @@
         <v>108.5919157831171</v>
       </c>
       <c r="M14" t="n">
-        <v>86.21228856804143</v>
+        <v>86.21228856804132</v>
       </c>
       <c r="N14" t="n">
-        <v>79.58366863874986</v>
+        <v>79.58366863874974</v>
       </c>
       <c r="O14" t="n">
-        <v>99.0080471283139</v>
+        <v>99.00804712831379</v>
       </c>
       <c r="P14" t="n">
         <v>83.66766412458549</v>
@@ -9008,19 +9008,19 @@
         <v>32.78366918850629</v>
       </c>
       <c r="K15" t="n">
-        <v>68.76096162327045</v>
+        <v>41.52660445760571</v>
       </c>
       <c r="L15" t="n">
-        <v>40.71618209937149</v>
+        <v>62.04775295867739</v>
       </c>
       <c r="M15" t="n">
-        <v>31.34987866774998</v>
+        <v>31.34987866774986</v>
       </c>
       <c r="N15" t="n">
-        <v>0</v>
+        <v>5.902786306358607</v>
       </c>
       <c r="O15" t="n">
-        <v>47.34254351484341</v>
+        <v>47.3425435148433</v>
       </c>
       <c r="P15" t="n">
         <v>6.650684925383104</v>
@@ -9172,13 +9172,13 @@
         <v>108.5919157831171</v>
       </c>
       <c r="M17" t="n">
-        <v>86.21228856804143</v>
+        <v>86.21228856804132</v>
       </c>
       <c r="N17" t="n">
-        <v>79.58366863874986</v>
+        <v>79.58366863874974</v>
       </c>
       <c r="O17" t="n">
-        <v>99.0080471283139</v>
+        <v>99.00804712831379</v>
       </c>
       <c r="P17" t="n">
         <v>83.66766412458549</v>
@@ -9248,19 +9248,19 @@
         <v>68.76096162327045</v>
       </c>
       <c r="L18" t="n">
-        <v>62.04775295867751</v>
+        <v>62.04775295867739</v>
       </c>
       <c r="M18" t="n">
-        <v>10.01830780844396</v>
+        <v>31.34987866774986</v>
       </c>
       <c r="N18" t="n">
-        <v>0</v>
+        <v>8.918589751635977</v>
       </c>
       <c r="O18" t="n">
-        <v>47.34254351484341</v>
+        <v>0</v>
       </c>
       <c r="P18" t="n">
-        <v>6.650684925383104</v>
+        <v>23.7430678292843</v>
       </c>
       <c r="Q18" t="n">
         <v>54.62009481132077</v>
@@ -9409,10 +9409,10 @@
         <v>108.5919157831171</v>
       </c>
       <c r="M20" t="n">
-        <v>86.21228856804143</v>
+        <v>86.21228856804132</v>
       </c>
       <c r="N20" t="n">
-        <v>79.58366863874986</v>
+        <v>79.58366863874974</v>
       </c>
       <c r="O20" t="n">
         <v>99.00804712831379</v>
@@ -9482,22 +9482,22 @@
         <v>32.78366918850629</v>
       </c>
       <c r="K21" t="n">
-        <v>68.76096162327045</v>
+        <v>41.52660445760571</v>
       </c>
       <c r="L21" t="n">
-        <v>62.04775295867751</v>
+        <v>0</v>
       </c>
       <c r="M21" t="n">
-        <v>31.34987866774998</v>
+        <v>24.65928266217037</v>
       </c>
       <c r="N21" t="n">
         <v>0</v>
       </c>
       <c r="O21" t="n">
-        <v>26.01097265553738</v>
+        <v>47.3425435148433</v>
       </c>
       <c r="P21" t="n">
-        <v>6.650684925383104</v>
+        <v>81.29182019599861</v>
       </c>
       <c r="Q21" t="n">
         <v>54.62009481132077</v>
@@ -9725,13 +9725,13 @@
         <v>92.70898309877253</v>
       </c>
       <c r="M24" t="n">
-        <v>0</v>
+        <v>62.01110880784501</v>
       </c>
       <c r="N24" t="n">
-        <v>39.57981989173112</v>
+        <v>9.944960433308907</v>
       </c>
       <c r="O24" t="n">
-        <v>32.37624934942275</v>
+        <v>0</v>
       </c>
       <c r="P24" t="n">
         <v>82.80031984638366</v>
@@ -9962,16 +9962,16 @@
         <v>92.70898309877253</v>
       </c>
       <c r="M27" t="n">
-        <v>32.37624934942279</v>
+        <v>62.01110880784501</v>
       </c>
       <c r="N27" t="n">
-        <v>39.57981989173112</v>
+        <v>8.090821699371034</v>
       </c>
       <c r="O27" t="n">
-        <v>0</v>
+        <v>78.00377365493844</v>
       </c>
       <c r="P27" t="n">
-        <v>82.80031984638366</v>
+        <v>6.650684925383104</v>
       </c>
       <c r="Q27" t="n">
         <v>54.62009481132077</v>
@@ -10196,19 +10196,19 @@
         <v>68.76096162327045</v>
       </c>
       <c r="L30" t="n">
-        <v>47.08145879325689</v>
+        <v>92.70898309877253</v>
       </c>
       <c r="M30" t="n">
-        <v>0</v>
+        <v>62.01110880784501</v>
       </c>
       <c r="N30" t="n">
-        <v>39.57981989173112</v>
+        <v>8.090821699371034</v>
       </c>
       <c r="O30" t="n">
         <v>78.00377365493844</v>
       </c>
       <c r="P30" t="n">
-        <v>82.80031984638366</v>
+        <v>6.650684925383104</v>
       </c>
       <c r="Q30" t="n">
         <v>54.62009481132077</v>
@@ -10436,16 +10436,16 @@
         <v>92.70898309877253</v>
       </c>
       <c r="M33" t="n">
-        <v>62.01110880784501</v>
+        <v>0</v>
       </c>
       <c r="N33" t="n">
-        <v>9.944960433308907</v>
+        <v>39.57981989173112</v>
       </c>
       <c r="O33" t="n">
-        <v>0</v>
+        <v>78.00377365493844</v>
       </c>
       <c r="P33" t="n">
-        <v>82.80031984638366</v>
+        <v>37.17279554086798</v>
       </c>
       <c r="Q33" t="n">
         <v>54.62009481132077</v>
@@ -10667,13 +10667,13 @@
         <v>32.78366918850629</v>
       </c>
       <c r="K36" t="n">
-        <v>68.76096162327045</v>
+        <v>41.52660445760571</v>
       </c>
       <c r="L36" t="n">
-        <v>44.76746901134893</v>
+        <v>40.65194750926381</v>
       </c>
       <c r="M36" t="n">
-        <v>0</v>
+        <v>31.34987866774986</v>
       </c>
       <c r="N36" t="n">
         <v>0</v>
@@ -10904,10 +10904,10 @@
         <v>32.78366918850629</v>
       </c>
       <c r="K39" t="n">
-        <v>68.76096162327045</v>
+        <v>41.52660445760571</v>
       </c>
       <c r="L39" t="n">
-        <v>0</v>
+        <v>62.04775295867739</v>
       </c>
       <c r="M39" t="n">
         <v>31.34987866774986</v>
@@ -10916,10 +10916,10 @@
         <v>8.918589751635977</v>
       </c>
       <c r="O39" t="n">
-        <v>4.4990005919631</v>
+        <v>44.32674006956593</v>
       </c>
       <c r="P39" t="n">
-        <v>81.29182019599861</v>
+        <v>6.650684925383104</v>
       </c>
       <c r="Q39" t="n">
         <v>54.62009481132077</v>
@@ -11141,22 +11141,22 @@
         <v>32.78366918850629</v>
       </c>
       <c r="K42" t="n">
-        <v>41.52660445760571</v>
+        <v>68.76096162327045</v>
       </c>
       <c r="L42" t="n">
         <v>62.04775295867739</v>
       </c>
       <c r="M42" t="n">
-        <v>9.954073218336291</v>
+        <v>31.34987866774986</v>
       </c>
       <c r="N42" t="n">
-        <v>0</v>
+        <v>8.918589751635977</v>
       </c>
       <c r="O42" t="n">
-        <v>0</v>
+        <v>17.0923829039012</v>
       </c>
       <c r="P42" t="n">
-        <v>81.29182019599861</v>
+        <v>6.650684925383104</v>
       </c>
       <c r="Q42" t="n">
         <v>54.62009481132077</v>
@@ -11381,19 +11381,19 @@
         <v>68.76096162327045</v>
       </c>
       <c r="L45" t="n">
-        <v>62.04775295867739</v>
+        <v>0</v>
       </c>
       <c r="M45" t="n">
-        <v>10.01830780844374</v>
+        <v>31.34987866774986</v>
       </c>
       <c r="N45" t="n">
         <v>0</v>
       </c>
       <c r="O45" t="n">
-        <v>47.3425435148433</v>
+        <v>13.41759034359908</v>
       </c>
       <c r="P45" t="n">
-        <v>6.650684925383104</v>
+        <v>81.29182019599861</v>
       </c>
       <c r="Q45" t="n">
         <v>54.62009481132077</v>
@@ -23217,7 +23217,7 @@
         <v>56.73884728383211</v>
       </c>
       <c r="O10" t="n">
-        <v>81.28703038709219</v>
+        <v>81.2870303870922</v>
       </c>
       <c r="P10" t="n">
         <v>98.88580198047258</v>
@@ -23266,22 +23266,22 @@
         <v>319.1317556432476</v>
       </c>
       <c r="E11" t="n">
-        <v>359.9585549362873</v>
+        <v>285.3174196656719</v>
       </c>
       <c r="F11" t="n">
-        <v>399.146417573369</v>
+        <v>324.5052823027536</v>
       </c>
       <c r="G11" t="n">
-        <v>421.7375654037669</v>
+        <v>361.4363752760764</v>
       </c>
       <c r="H11" t="n">
         <v>345.1229135705384</v>
       </c>
       <c r="I11" t="n">
-        <v>164.8359374262739</v>
+        <v>236.2056240496051</v>
       </c>
       <c r="J11" t="n">
-        <v>0</v>
+        <v>63.57263877497482</v>
       </c>
       <c r="K11" t="n">
         <v>0</v>
@@ -23311,10 +23311,10 @@
         <v>225.1723475611494</v>
       </c>
       <c r="T11" t="n">
-        <v>142.7632607098265</v>
+        <v>217.404395980442</v>
       </c>
       <c r="U11" t="n">
-        <v>174.1122577724848</v>
+        <v>248.7533930431003</v>
       </c>
       <c r="V11" t="n">
         <v>313.3044420010231</v>
@@ -23326,7 +23326,7 @@
         <v>348.8168793035129</v>
       </c>
       <c r="Y11" t="n">
-        <v>377.9289763951821</v>
+        <v>303.2878411245666</v>
       </c>
     </row>
     <row r="12">
@@ -23336,10 +23336,10 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>188.0127573810344</v>
+        <v>113.371622110419</v>
       </c>
       <c r="C12" t="n">
-        <v>203.8424276152394</v>
+        <v>129.2012923446239</v>
       </c>
       <c r="D12" t="n">
         <v>172.0989423795122</v>
@@ -23348,16 +23348,16 @@
         <v>187.4605452976028</v>
       </c>
       <c r="F12" t="n">
-        <v>108.2404361789657</v>
+        <v>173.9843481253239</v>
       </c>
       <c r="G12" t="n">
-        <v>86.13680217805199</v>
+        <v>160.7779374486676</v>
       </c>
       <c r="H12" t="n">
-        <v>60.82002050473795</v>
+        <v>135.4611557753535</v>
       </c>
       <c r="I12" t="n">
-        <v>34.14879701392408</v>
+        <v>108.7899322845397</v>
       </c>
       <c r="J12" t="n">
         <v>59.06417529311322</v>
@@ -23381,7 +23381,7 @@
         <v>0</v>
       </c>
       <c r="Q12" t="n">
-        <v>23.56997936457755</v>
+        <v>0</v>
       </c>
       <c r="R12" t="n">
         <v>139.6756645808302</v>
@@ -23390,7 +23390,7 @@
         <v>203.6197884976879</v>
       </c>
       <c r="T12" t="n">
-        <v>229.1399021102451</v>
+        <v>154.4987668396296</v>
       </c>
       <c r="U12" t="n">
         <v>249.6339604646903</v>
@@ -23405,7 +23405,7 @@
         <v>230.033063710963</v>
       </c>
       <c r="Y12" t="n">
-        <v>242.8962664135933</v>
+        <v>200.7223338318128</v>
       </c>
     </row>
     <row r="13">
@@ -23494,10 +23494,10 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>289.9151923264476</v>
+        <v>289.9151923264477</v>
       </c>
       <c r="C14" t="n">
-        <v>271.3571418093621</v>
+        <v>333.5971194742085</v>
       </c>
       <c r="D14" t="n">
         <v>319.1317556432476</v>
@@ -23512,7 +23512,7 @@
         <v>421.7375654037669</v>
       </c>
       <c r="H14" t="n">
-        <v>270.4817782999228</v>
+        <v>345.1229135705384</v>
       </c>
       <c r="I14" t="n">
         <v>236.2056240496051</v>
@@ -23521,7 +23521,7 @@
         <v>63.57263877497482</v>
       </c>
       <c r="K14" t="n">
-        <v>1.938787537155832</v>
+        <v>0</v>
       </c>
       <c r="L14" t="n">
         <v>0</v>
@@ -23551,19 +23551,19 @@
         <v>217.404395980442</v>
       </c>
       <c r="U14" t="n">
-        <v>248.7533930431003</v>
+        <v>174.1122577724849</v>
       </c>
       <c r="V14" t="n">
         <v>313.3044420010231</v>
       </c>
       <c r="W14" t="n">
-        <v>325.3917254792934</v>
+        <v>250.7505902086779</v>
       </c>
       <c r="X14" t="n">
-        <v>348.8168793035129</v>
+        <v>288.5156891758224</v>
       </c>
       <c r="Y14" t="n">
-        <v>303.2878411245665</v>
+        <v>377.9289763951821</v>
       </c>
     </row>
     <row r="15">
@@ -23573,7 +23573,7 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>188.0127573810344</v>
+        <v>113.371622110419</v>
       </c>
       <c r="C15" t="n">
         <v>203.8424276152394</v>
@@ -23582,22 +23582,22 @@
         <v>172.0989423795122</v>
       </c>
       <c r="E15" t="n">
-        <v>187.4605452976028</v>
+        <v>112.8194100269874</v>
       </c>
       <c r="F15" t="n">
         <v>173.9843481253239</v>
       </c>
       <c r="G15" t="n">
-        <v>160.7779374486676</v>
+        <v>118.604004866887</v>
       </c>
       <c r="H15" t="n">
         <v>135.4611557753535</v>
       </c>
       <c r="I15" t="n">
-        <v>34.14879701392408</v>
+        <v>108.7899322845397</v>
       </c>
       <c r="J15" t="n">
-        <v>0</v>
+        <v>59.06417529311322</v>
       </c>
       <c r="K15" t="n">
         <v>0</v>
@@ -23618,16 +23618,16 @@
         <v>0</v>
       </c>
       <c r="Q15" t="n">
-        <v>23.56997936457755</v>
+        <v>0</v>
       </c>
       <c r="R15" t="n">
-        <v>65.03452931021465</v>
+        <v>139.6756645808302</v>
       </c>
       <c r="S15" t="n">
-        <v>128.9786532270723</v>
+        <v>203.6197884976879</v>
       </c>
       <c r="T15" t="n">
-        <v>222.4601654570001</v>
+        <v>229.1399021102451</v>
       </c>
       <c r="U15" t="n">
         <v>249.6339604646903</v>
@@ -23636,7 +23636,7 @@
         <v>249.2999251801724</v>
       </c>
       <c r="W15" t="n">
-        <v>283.2492567629311</v>
+        <v>208.6081214923156</v>
       </c>
       <c r="X15" t="n">
         <v>230.033063710963</v>
@@ -23740,22 +23740,22 @@
         <v>319.1317556432476</v>
       </c>
       <c r="E17" t="n">
-        <v>359.9585549362873</v>
+        <v>285.3174196656719</v>
       </c>
       <c r="F17" t="n">
         <v>399.146417573369</v>
       </c>
       <c r="G17" t="n">
-        <v>347.0964301331513</v>
+        <v>421.7375654037669</v>
       </c>
       <c r="H17" t="n">
-        <v>270.4817782999228</v>
+        <v>345.1229135705384</v>
       </c>
       <c r="I17" t="n">
-        <v>161.5644887789896</v>
+        <v>236.2056240496051</v>
       </c>
       <c r="J17" t="n">
-        <v>1.332661110128512</v>
+        <v>63.57263877497482</v>
       </c>
       <c r="K17" t="n">
         <v>1.938787537155832</v>
@@ -23779,7 +23779,7 @@
         <v>69.85414983824657</v>
       </c>
       <c r="R17" t="n">
-        <v>181.8306667163254</v>
+        <v>107.1895314457099</v>
       </c>
       <c r="S17" t="n">
         <v>225.1723475611494</v>
@@ -23791,13 +23791,13 @@
         <v>248.7533930431003</v>
       </c>
       <c r="V17" t="n">
-        <v>313.3044420010231</v>
+        <v>251.0644643361769</v>
       </c>
       <c r="W17" t="n">
         <v>325.3917254792934</v>
       </c>
       <c r="X17" t="n">
-        <v>348.8168793035129</v>
+        <v>274.1757440328975</v>
       </c>
       <c r="Y17" t="n">
         <v>377.9289763951821</v>
@@ -23816,25 +23816,25 @@
         <v>203.8424276152394</v>
       </c>
       <c r="D18" t="n">
-        <v>172.0989423795122</v>
+        <v>97.45780710889673</v>
       </c>
       <c r="E18" t="n">
         <v>187.4605452976028</v>
       </c>
       <c r="F18" t="n">
-        <v>167.3046114720789</v>
+        <v>173.9843481253239</v>
       </c>
       <c r="G18" t="n">
-        <v>86.13680217805199</v>
+        <v>86.13680217805211</v>
       </c>
       <c r="H18" t="n">
-        <v>60.82002050473795</v>
+        <v>135.4611557753535</v>
       </c>
       <c r="I18" t="n">
-        <v>34.14879701392408</v>
+        <v>108.7899322845397</v>
       </c>
       <c r="J18" t="n">
-        <v>0</v>
+        <v>59.06417529311322</v>
       </c>
       <c r="K18" t="n">
         <v>0</v>
@@ -23855,7 +23855,7 @@
         <v>0</v>
       </c>
       <c r="Q18" t="n">
-        <v>23.56997936457755</v>
+        <v>0</v>
       </c>
       <c r="R18" t="n">
         <v>139.6756645808302</v>
@@ -23864,13 +23864,13 @@
         <v>203.6197884976879</v>
       </c>
       <c r="T18" t="n">
-        <v>229.1399021102451</v>
+        <v>154.4987668396296</v>
       </c>
       <c r="U18" t="n">
         <v>249.6339604646903</v>
       </c>
       <c r="V18" t="n">
-        <v>249.2999251801724</v>
+        <v>207.1259925983918</v>
       </c>
       <c r="W18" t="n">
         <v>283.2492567629311</v>
@@ -23977,10 +23977,10 @@
         <v>319.1317556432476</v>
       </c>
       <c r="E20" t="n">
-        <v>285.3174196656718</v>
+        <v>359.9585549362873</v>
       </c>
       <c r="F20" t="n">
-        <v>324.5052823027535</v>
+        <v>324.5052823027536</v>
       </c>
       <c r="G20" t="n">
         <v>421.7375654037669</v>
@@ -24013,10 +24013,10 @@
         <v>0</v>
       </c>
       <c r="Q20" t="n">
-        <v>7.614172173400291</v>
+        <v>0</v>
       </c>
       <c r="R20" t="n">
-        <v>107.1895314457098</v>
+        <v>107.1895314457099</v>
       </c>
       <c r="S20" t="n">
         <v>225.1723475611494</v>
@@ -24028,7 +24028,7 @@
         <v>248.7533930431003</v>
       </c>
       <c r="V20" t="n">
-        <v>313.3044420010231</v>
+        <v>246.2774789038079</v>
       </c>
       <c r="W20" t="n">
         <v>325.3917254792934</v>
@@ -24050,16 +24050,16 @@
         <v>188.0127573810344</v>
       </c>
       <c r="C21" t="n">
-        <v>203.8424276152394</v>
+        <v>129.2012923446239</v>
       </c>
       <c r="D21" t="n">
-        <v>172.0989423795122</v>
+        <v>106.3550304331541</v>
       </c>
       <c r="E21" t="n">
-        <v>187.4605452976028</v>
+        <v>112.8194100269874</v>
       </c>
       <c r="F21" t="n">
-        <v>173.9843481253239</v>
+        <v>99.34321285470844</v>
       </c>
       <c r="G21" t="n">
         <v>160.7779374486676</v>
@@ -24092,22 +24092,22 @@
         <v>0</v>
       </c>
       <c r="Q21" t="n">
-        <v>0</v>
+        <v>23.56997936457755</v>
       </c>
       <c r="R21" t="n">
         <v>139.6756645808302</v>
       </c>
       <c r="S21" t="n">
-        <v>128.9786532270723</v>
+        <v>203.6197884976879</v>
       </c>
       <c r="T21" t="n">
-        <v>154.4987668396295</v>
+        <v>229.1399021102451</v>
       </c>
       <c r="U21" t="n">
         <v>249.6339604646903</v>
       </c>
       <c r="V21" t="n">
-        <v>174.6587899095568</v>
+        <v>249.2999251801724</v>
       </c>
       <c r="W21" t="n">
         <v>283.2492567629311</v>
@@ -24116,7 +24116,7 @@
         <v>230.033063710963</v>
       </c>
       <c r="Y21" t="n">
-        <v>200.7223338318127</v>
+        <v>242.8962664135933</v>
       </c>
     </row>
     <row r="22">
@@ -24217,16 +24217,16 @@
         <v>359.9585549362873</v>
       </c>
       <c r="F23" t="n">
-        <v>399.146417573369</v>
+        <v>293.8440521626584</v>
       </c>
       <c r="G23" t="n">
         <v>421.7375654037669</v>
       </c>
       <c r="H23" t="n">
-        <v>239.8205481598278</v>
+        <v>345.1229135705384</v>
       </c>
       <c r="I23" t="n">
-        <v>130.9032586388945</v>
+        <v>236.2056240496051</v>
       </c>
       <c r="J23" t="n">
         <v>63.57263877497482</v>
@@ -24253,7 +24253,7 @@
         <v>39.49571927307117</v>
       </c>
       <c r="R23" t="n">
-        <v>181.8306667163254</v>
+        <v>76.52830130561475</v>
       </c>
       <c r="S23" t="n">
         <v>225.1723475611494</v>
@@ -24265,10 +24265,10 @@
         <v>248.7533930431003</v>
       </c>
       <c r="V23" t="n">
-        <v>313.3044420010231</v>
+        <v>208.0020765903125</v>
       </c>
       <c r="W23" t="n">
-        <v>220.0893600685827</v>
+        <v>325.3917254792934</v>
       </c>
       <c r="X23" t="n">
         <v>348.8168793035129</v>
@@ -24290,22 +24290,22 @@
         <v>203.8424276152394</v>
       </c>
       <c r="D24" t="n">
-        <v>172.0989423795122</v>
+        <v>66.79657696880159</v>
       </c>
       <c r="E24" t="n">
         <v>187.4605452976028</v>
       </c>
       <c r="F24" t="n">
-        <v>173.9843481253239</v>
+        <v>68.6819827146133</v>
       </c>
       <c r="G24" t="n">
-        <v>160.7779374486676</v>
+        <v>55.47557203795697</v>
       </c>
       <c r="H24" t="n">
         <v>135.4611557753535</v>
       </c>
       <c r="I24" t="n">
-        <v>3.487566873829053</v>
+        <v>16.03960883078577</v>
       </c>
       <c r="J24" t="n">
         <v>59.06417529311322</v>
@@ -24347,13 +24347,13 @@
         <v>249.2999251801724</v>
       </c>
       <c r="W24" t="n">
-        <v>190.4989333091772</v>
+        <v>283.2492567629311</v>
       </c>
       <c r="X24" t="n">
-        <v>124.7306983002524</v>
+        <v>230.033063710963</v>
       </c>
       <c r="Y24" t="n">
-        <v>137.5939010028827</v>
+        <v>242.8962664135933</v>
       </c>
     </row>
     <row r="25">
@@ -24442,22 +24442,22 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>298.7496814594238</v>
+        <v>364.5563275970632</v>
       </c>
       <c r="C26" t="n">
-        <v>228.2947540634978</v>
+        <v>333.5971194742085</v>
       </c>
       <c r="D26" t="n">
         <v>319.1317556432476</v>
       </c>
       <c r="E26" t="n">
-        <v>359.9585549362873</v>
+        <v>254.6561895255767</v>
       </c>
       <c r="F26" t="n">
-        <v>399.146417573369</v>
+        <v>293.8440521626584</v>
       </c>
       <c r="G26" t="n">
-        <v>421.7375654037669</v>
+        <v>316.4351999930562</v>
       </c>
       <c r="H26" t="n">
         <v>345.1229135705384</v>
@@ -24487,10 +24487,10 @@
         <v>0</v>
       </c>
       <c r="Q26" t="n">
-        <v>0</v>
+        <v>69.85414983824657</v>
       </c>
       <c r="R26" t="n">
-        <v>76.52830130561475</v>
+        <v>181.8306667163254</v>
       </c>
       <c r="S26" t="n">
         <v>225.1723475611494</v>
@@ -24502,7 +24502,7 @@
         <v>248.7533930431003</v>
       </c>
       <c r="V26" t="n">
-        <v>313.3044420010231</v>
+        <v>282.9460114358477</v>
       </c>
       <c r="W26" t="n">
         <v>325.3917254792934</v>
@@ -24527,19 +24527,19 @@
         <v>203.8424276152394</v>
       </c>
       <c r="D27" t="n">
-        <v>172.0989423795122</v>
+        <v>66.79657696880159</v>
       </c>
       <c r="E27" t="n">
-        <v>82.15817988689221</v>
+        <v>187.4605452976028</v>
       </c>
       <c r="F27" t="n">
-        <v>173.9843481253239</v>
+        <v>68.6819827146133</v>
       </c>
       <c r="G27" t="n">
-        <v>55.47557203795697</v>
+        <v>68.02761399491368</v>
       </c>
       <c r="H27" t="n">
-        <v>42.71083232159964</v>
+        <v>135.4611557753535</v>
       </c>
       <c r="I27" t="n">
         <v>108.7899322845397</v>
@@ -24572,7 +24572,7 @@
         <v>139.6756645808302</v>
       </c>
       <c r="S27" t="n">
-        <v>203.6197884976879</v>
+        <v>98.31742308697727</v>
       </c>
       <c r="T27" t="n">
         <v>229.1399021102451</v>
@@ -24581,7 +24581,7 @@
         <v>249.6339604646903</v>
       </c>
       <c r="V27" t="n">
-        <v>143.9975597694618</v>
+        <v>249.2999251801724</v>
       </c>
       <c r="W27" t="n">
         <v>283.2492567629311</v>
@@ -24679,13 +24679,13 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>259.2539621863525</v>
+        <v>334.1978970318877</v>
       </c>
       <c r="C29" t="n">
-        <v>228.2947540634978</v>
+        <v>333.5971194742085</v>
       </c>
       <c r="D29" t="n">
-        <v>288.7733250780722</v>
+        <v>319.1317556432476</v>
       </c>
       <c r="E29" t="n">
         <v>359.9585549362873</v>
@@ -24739,10 +24739,10 @@
         <v>248.7533930431003</v>
       </c>
       <c r="V29" t="n">
-        <v>313.3044420010231</v>
+        <v>208.0020765903125</v>
       </c>
       <c r="W29" t="n">
-        <v>325.3917254792934</v>
+        <v>220.0893600685827</v>
       </c>
       <c r="X29" t="n">
         <v>348.8168793035129</v>
@@ -24758,19 +24758,19 @@
         </is>
       </c>
       <c r="B30" t="n">
-        <v>95.26243392728054</v>
+        <v>188.0127573810344</v>
       </c>
       <c r="C30" t="n">
-        <v>203.8424276152394</v>
+        <v>98.54006220452877</v>
       </c>
       <c r="D30" t="n">
         <v>172.0989423795122</v>
       </c>
       <c r="E30" t="n">
-        <v>187.4605452976028</v>
+        <v>118.2802012084265</v>
       </c>
       <c r="F30" t="n">
-        <v>68.6819827146133</v>
+        <v>173.9843481253239</v>
       </c>
       <c r="G30" t="n">
         <v>55.47557203795697</v>
@@ -24803,16 +24803,16 @@
         <v>0</v>
       </c>
       <c r="Q30" t="n">
-        <v>23.56997936457755</v>
+        <v>0</v>
       </c>
       <c r="R30" t="n">
-        <v>139.6756645808302</v>
+        <v>34.37329917011962</v>
       </c>
       <c r="S30" t="n">
         <v>203.6197884976879</v>
       </c>
       <c r="T30" t="n">
-        <v>123.8375366995345</v>
+        <v>229.1399021102451</v>
       </c>
       <c r="U30" t="n">
         <v>249.6339604646903</v>
@@ -24919,13 +24919,13 @@
         <v>364.5563275970632</v>
       </c>
       <c r="C32" t="n">
-        <v>333.5971194742085</v>
+        <v>267.790473336569</v>
       </c>
       <c r="D32" t="n">
         <v>319.1317556432476</v>
       </c>
       <c r="E32" t="n">
-        <v>359.9585549362873</v>
+        <v>254.6561895255767</v>
       </c>
       <c r="F32" t="n">
         <v>399.146417573369</v>
@@ -24961,10 +24961,10 @@
         <v>0</v>
       </c>
       <c r="Q32" t="n">
-        <v>69.85414983824657</v>
+        <v>0</v>
       </c>
       <c r="R32" t="n">
-        <v>181.8306667163254</v>
+        <v>76.52830130561475</v>
       </c>
       <c r="S32" t="n">
         <v>225.1723475611494</v>
@@ -24976,16 +24976,16 @@
         <v>248.7533930431003</v>
       </c>
       <c r="V32" t="n">
-        <v>208.0020765903125</v>
+        <v>313.3044420010231</v>
       </c>
       <c r="W32" t="n">
-        <v>220.0893600685827</v>
+        <v>325.3917254792934</v>
       </c>
       <c r="X32" t="n">
-        <v>243.5145138928023</v>
+        <v>348.8168793035129</v>
       </c>
       <c r="Y32" t="n">
-        <v>347.5705458300067</v>
+        <v>377.9289763951821</v>
       </c>
     </row>
     <row r="33">
@@ -24995,7 +24995,7 @@
         </is>
       </c>
       <c r="B33" t="n">
-        <v>82.71039197032383</v>
+        <v>95.26243392728054</v>
       </c>
       <c r="C33" t="n">
         <v>203.8424276152394</v>
@@ -25013,10 +25013,10 @@
         <v>160.7779374486676</v>
       </c>
       <c r="H33" t="n">
-        <v>42.71083232159964</v>
+        <v>135.4611557753535</v>
       </c>
       <c r="I33" t="n">
-        <v>3.487566873829053</v>
+        <v>108.7899322845397</v>
       </c>
       <c r="J33" t="n">
         <v>59.06417529311322</v>
@@ -25049,10 +25049,10 @@
         <v>203.6197884976879</v>
       </c>
       <c r="T33" t="n">
-        <v>229.1399021102451</v>
+        <v>123.8375366995345</v>
       </c>
       <c r="U33" t="n">
-        <v>249.6339604646903</v>
+        <v>144.3315950539797</v>
       </c>
       <c r="V33" t="n">
         <v>249.2999251801724</v>
@@ -25174,13 +25174,13 @@
         <v>345.1229135705384</v>
       </c>
       <c r="I35" t="n">
-        <v>162.8971498891182</v>
+        <v>236.2056240496051</v>
       </c>
       <c r="J35" t="n">
-        <v>0</v>
+        <v>63.57263877497482</v>
       </c>
       <c r="K35" t="n">
-        <v>1.938787537155832</v>
+        <v>0</v>
       </c>
       <c r="L35" t="n">
         <v>0</v>
@@ -25198,10 +25198,10 @@
         <v>0</v>
       </c>
       <c r="Q35" t="n">
-        <v>69.85414983824657</v>
+        <v>0</v>
       </c>
       <c r="R35" t="n">
-        <v>181.8306667163254</v>
+        <v>107.1895314457099</v>
       </c>
       <c r="S35" t="n">
         <v>225.1723475611494</v>
@@ -25210,19 +25210,19 @@
         <v>217.404395980442</v>
       </c>
       <c r="U35" t="n">
-        <v>248.7533930431003</v>
+        <v>174.1122577724849</v>
       </c>
       <c r="V35" t="n">
-        <v>313.3044420010231</v>
+        <v>248.2162664409638</v>
       </c>
       <c r="W35" t="n">
         <v>325.3917254792934</v>
       </c>
       <c r="X35" t="n">
-        <v>274.1757440328975</v>
+        <v>348.8168793035129</v>
       </c>
       <c r="Y35" t="n">
-        <v>303.2878411245666</v>
+        <v>377.9289763951821</v>
       </c>
     </row>
     <row r="36">
@@ -25232,13 +25232,13 @@
         </is>
       </c>
       <c r="B36" t="n">
-        <v>113.371622110419</v>
+        <v>188.0127573810344</v>
       </c>
       <c r="C36" t="n">
         <v>203.8424276152394</v>
       </c>
       <c r="D36" t="n">
-        <v>172.0989423795122</v>
+        <v>129.9250097977317</v>
       </c>
       <c r="E36" t="n">
         <v>187.4605452976028</v>
@@ -25256,7 +25256,7 @@
         <v>108.7899322845397</v>
       </c>
       <c r="J36" t="n">
-        <v>0</v>
+        <v>59.06417529311322</v>
       </c>
       <c r="K36" t="n">
         <v>0</v>
@@ -25277,7 +25277,7 @@
         <v>0</v>
       </c>
       <c r="Q36" t="n">
-        <v>23.56997936457755</v>
+        <v>0</v>
       </c>
       <c r="R36" t="n">
         <v>139.6756645808302</v>
@@ -25289,19 +25289,19 @@
         <v>229.1399021102451</v>
       </c>
       <c r="U36" t="n">
-        <v>249.6339604646903</v>
+        <v>174.9928251940748</v>
       </c>
       <c r="V36" t="n">
-        <v>249.2999251801724</v>
+        <v>174.6587899095569</v>
       </c>
       <c r="W36" t="n">
         <v>208.6081214923156</v>
       </c>
       <c r="X36" t="n">
-        <v>223.3533270577181</v>
+        <v>230.033063710963</v>
       </c>
       <c r="Y36" t="n">
-        <v>168.2551311429779</v>
+        <v>242.8962664135933</v>
       </c>
     </row>
     <row r="37">
@@ -25402,10 +25402,10 @@
         <v>359.9585549362873</v>
       </c>
       <c r="F38" t="n">
-        <v>399.146417573369</v>
+        <v>324.5052823027536</v>
       </c>
       <c r="G38" t="n">
-        <v>421.7375654037669</v>
+        <v>347.0964301331514</v>
       </c>
       <c r="H38" t="n">
         <v>345.1229135705384</v>
@@ -25438,7 +25438,7 @@
         <v>69.85414983824657</v>
       </c>
       <c r="R38" t="n">
-        <v>119.5906890514791</v>
+        <v>181.8306667163254</v>
       </c>
       <c r="S38" t="n">
         <v>225.1723475611494</v>
@@ -25447,16 +25447,16 @@
         <v>217.404395980442</v>
       </c>
       <c r="U38" t="n">
-        <v>248.7533930431003</v>
+        <v>186.5134153782541</v>
       </c>
       <c r="V38" t="n">
         <v>313.3044420010231</v>
       </c>
       <c r="W38" t="n">
-        <v>250.7505902086779</v>
+        <v>325.3917254792934</v>
       </c>
       <c r="X38" t="n">
-        <v>274.1757440328975</v>
+        <v>348.8168793035129</v>
       </c>
       <c r="Y38" t="n">
         <v>303.2878411245666</v>
@@ -25469,19 +25469,19 @@
         </is>
       </c>
       <c r="B39" t="n">
-        <v>188.0127573810344</v>
+        <v>122.2688454346763</v>
       </c>
       <c r="C39" t="n">
-        <v>129.2012923446239</v>
+        <v>203.8424276152394</v>
       </c>
       <c r="D39" t="n">
         <v>172.0989423795122</v>
       </c>
       <c r="E39" t="n">
-        <v>112.8194100269874</v>
+        <v>187.4605452976028</v>
       </c>
       <c r="F39" t="n">
-        <v>131.8104155435434</v>
+        <v>99.34321285470844</v>
       </c>
       <c r="G39" t="n">
         <v>160.7779374486676</v>
@@ -25514,7 +25514,7 @@
         <v>0</v>
       </c>
       <c r="Q39" t="n">
-        <v>0</v>
+        <v>23.56997936457755</v>
       </c>
       <c r="R39" t="n">
         <v>139.6756645808302</v>
@@ -25526,7 +25526,7 @@
         <v>229.1399021102451</v>
       </c>
       <c r="U39" t="n">
-        <v>249.6339604646903</v>
+        <v>174.9928251940748</v>
       </c>
       <c r="V39" t="n">
         <v>249.2999251801724</v>
@@ -25627,7 +25627,7 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>289.9151923264477</v>
+        <v>364.5563275970632</v>
       </c>
       <c r="C41" t="n">
         <v>333.5971194742085</v>
@@ -25639,10 +25639,10 @@
         <v>359.9585549362873</v>
       </c>
       <c r="F41" t="n">
-        <v>324.5052823027536</v>
+        <v>399.146417573369</v>
       </c>
       <c r="G41" t="n">
-        <v>421.7375654037669</v>
+        <v>359.4975877389206</v>
       </c>
       <c r="H41" t="n">
         <v>345.1229135705384</v>
@@ -25654,7 +25654,7 @@
         <v>63.57263877497482</v>
       </c>
       <c r="K41" t="n">
-        <v>0</v>
+        <v>1.938787537155832</v>
       </c>
       <c r="L41" t="n">
         <v>0</v>
@@ -25672,7 +25672,7 @@
         <v>0</v>
       </c>
       <c r="Q41" t="n">
-        <v>9.552959710556138</v>
+        <v>69.85414983824657</v>
       </c>
       <c r="R41" t="n">
         <v>181.8306667163254</v>
@@ -25681,13 +25681,13 @@
         <v>225.1723475611494</v>
       </c>
       <c r="T41" t="n">
-        <v>217.404395980442</v>
+        <v>142.7632607098266</v>
       </c>
       <c r="U41" t="n">
-        <v>248.7533930431003</v>
+        <v>174.1122577724849</v>
       </c>
       <c r="V41" t="n">
-        <v>313.3044420010231</v>
+        <v>238.6633067304076</v>
       </c>
       <c r="W41" t="n">
         <v>325.3917254792934</v>
@@ -25696,7 +25696,7 @@
         <v>348.8168793035129</v>
       </c>
       <c r="Y41" t="n">
-        <v>303.2878411245666</v>
+        <v>377.9289763951821</v>
       </c>
     </row>
     <row r="42">
@@ -25712,16 +25712,16 @@
         <v>203.8424276152394</v>
       </c>
       <c r="D42" t="n">
-        <v>97.45780710889673</v>
+        <v>172.0989423795122</v>
       </c>
       <c r="E42" t="n">
         <v>112.8194100269874</v>
       </c>
       <c r="F42" t="n">
-        <v>108.2404361789658</v>
+        <v>173.9843481253239</v>
       </c>
       <c r="G42" t="n">
-        <v>160.7779374486676</v>
+        <v>86.13680217805211</v>
       </c>
       <c r="H42" t="n">
         <v>135.4611557753535</v>
@@ -25766,16 +25766,16 @@
         <v>249.6339604646903</v>
       </c>
       <c r="V42" t="n">
-        <v>249.2999251801724</v>
+        <v>174.6587899095569</v>
       </c>
       <c r="W42" t="n">
-        <v>283.2492567629311</v>
+        <v>217.505344816573</v>
       </c>
       <c r="X42" t="n">
         <v>230.033063710963</v>
       </c>
       <c r="Y42" t="n">
-        <v>168.2551311429779</v>
+        <v>242.8962664135933</v>
       </c>
     </row>
     <row r="43">
@@ -25876,10 +25876,10 @@
         <v>359.9585549362873</v>
       </c>
       <c r="F44" t="n">
-        <v>324.5052823027536</v>
+        <v>399.146417573369</v>
       </c>
       <c r="G44" t="n">
-        <v>354.7106023065517</v>
+        <v>421.7375654037669</v>
       </c>
       <c r="H44" t="n">
         <v>345.1229135705384</v>
@@ -25909,10 +25909,10 @@
         <v>0</v>
       </c>
       <c r="Q44" t="n">
-        <v>0</v>
+        <v>69.85414983824657</v>
       </c>
       <c r="R44" t="n">
-        <v>107.1895314457099</v>
+        <v>181.8306667163254</v>
       </c>
       <c r="S44" t="n">
         <v>225.1723475611494</v>
@@ -25921,16 +25921,16 @@
         <v>217.404395980442</v>
       </c>
       <c r="U44" t="n">
-        <v>248.7533930431003</v>
+        <v>174.1122577724849</v>
       </c>
       <c r="V44" t="n">
-        <v>313.3044420010231</v>
+        <v>238.6633067304076</v>
       </c>
       <c r="W44" t="n">
-        <v>325.3917254792934</v>
+        <v>250.7505902086779</v>
       </c>
       <c r="X44" t="n">
-        <v>348.8168793035129</v>
+        <v>286.5769016386666</v>
       </c>
       <c r="Y44" t="n">
         <v>377.9289763951821</v>
@@ -25943,7 +25943,7 @@
         </is>
       </c>
       <c r="B45" t="n">
-        <v>188.0127573810344</v>
+        <v>113.371622110419</v>
       </c>
       <c r="C45" t="n">
         <v>203.8424276152394</v>
@@ -25955,7 +25955,7 @@
         <v>187.4605452976028</v>
       </c>
       <c r="F45" t="n">
-        <v>173.9843481253239</v>
+        <v>99.34321285470844</v>
       </c>
       <c r="G45" t="n">
         <v>95.03402550230946</v>
@@ -25997,7 +25997,7 @@
         <v>203.6197884976879</v>
       </c>
       <c r="T45" t="n">
-        <v>154.4987668396296</v>
+        <v>229.1399021102451</v>
       </c>
       <c r="U45" t="n">
         <v>174.9928251940748</v>
@@ -26006,7 +26006,7 @@
         <v>249.2999251801724</v>
       </c>
       <c r="W45" t="n">
-        <v>208.6081214923156</v>
+        <v>283.2492567629311</v>
       </c>
       <c r="X45" t="n">
         <v>230.033063710963</v>
@@ -26165,7 +26165,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>436701.4319345479</v>
+        <v>436701.4319345478</v>
       </c>
     </row>
     <row r="8">
@@ -26181,7 +26181,7 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>449494.5042556106</v>
+        <v>449494.5042556105</v>
       </c>
     </row>
     <row r="10">
@@ -26189,7 +26189,7 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>449494.5042556106</v>
+        <v>449494.5042556105</v>
       </c>
     </row>
     <row r="11">
@@ -26213,7 +26213,7 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>436701.4319345477</v>
+        <v>436701.4319345478</v>
       </c>
     </row>
     <row r="14">
@@ -26237,7 +26237,7 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>436701.4319345479</v>
+        <v>436701.4319345478</v>
       </c>
     </row>
   </sheetData>
@@ -26316,46 +26316,46 @@
         <v>132798.2883786404</v>
       </c>
       <c r="C2" t="n">
-        <v>141754.9928791208</v>
+        <v>141754.9928791209</v>
       </c>
       <c r="D2" t="n">
-        <v>141754.9928791208</v>
+        <v>141754.9928791209</v>
       </c>
       <c r="E2" t="n">
         <v>184867.0087549343</v>
       </c>
       <c r="F2" t="n">
-        <v>184867.0087549344</v>
+        <v>184867.0087549343</v>
       </c>
       <c r="G2" t="n">
         <v>184867.0087549344</v>
       </c>
       <c r="H2" t="n">
-        <v>184867.0087549344</v>
+        <v>184867.0087549343</v>
       </c>
       <c r="I2" t="n">
-        <v>190027.396993213</v>
+        <v>190027.3969932129</v>
       </c>
       <c r="J2" t="n">
         <v>190027.3969932129</v>
       </c>
       <c r="K2" t="n">
-        <v>190027.396993213</v>
+        <v>190027.3969932129</v>
       </c>
       <c r="L2" t="n">
         <v>190027.3969932129</v>
       </c>
       <c r="M2" t="n">
+        <v>184867.0087549343</v>
+      </c>
+      <c r="N2" t="n">
+        <v>184867.0087549343</v>
+      </c>
+      <c r="O2" t="n">
         <v>184867.0087549344</v>
       </c>
-      <c r="N2" t="n">
+      <c r="P2" t="n">
         <v>184867.0087549344</v>
-      </c>
-      <c r="O2" t="n">
-        <v>184867.0087549343</v>
-      </c>
-      <c r="P2" t="n">
-        <v>184867.0087549343</v>
       </c>
     </row>
     <row r="3">
@@ -26374,7 +26374,7 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>144107.2657210742</v>
+        <v>144107.2657210741</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -26386,7 +26386,7 @@
         <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>8153.464980084279</v>
+        <v>8153.46498008424</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
@@ -26398,7 +26398,7 @@
         <v>0</v>
       </c>
       <c r="M3" t="n">
-        <v>10959.96827814622</v>
+        <v>10959.96827814619</v>
       </c>
       <c r="N3" t="n">
         <v>0</v>
@@ -26426,19 +26426,19 @@
         <v>6081.174578651922</v>
       </c>
       <c r="E4" t="n">
-        <v>5398.736727668382</v>
+        <v>5398.736727668378</v>
       </c>
       <c r="F4" t="n">
-        <v>5398.736727668382</v>
+        <v>5398.736727668378</v>
       </c>
       <c r="G4" t="n">
-        <v>5398.736727668382</v>
+        <v>5398.736727668378</v>
       </c>
       <c r="H4" t="n">
-        <v>5398.736727668381</v>
+        <v>5398.736727668378</v>
       </c>
       <c r="I4" t="n">
-        <v>6165.946488049133</v>
+        <v>6165.946488049132</v>
       </c>
       <c r="J4" t="n">
         <v>6165.946488049132</v>
@@ -26450,10 +26450,10 @@
         <v>6165.946488049132</v>
       </c>
       <c r="M4" t="n">
-        <v>5398.736727668377</v>
+        <v>5398.736727668378</v>
       </c>
       <c r="N4" t="n">
-        <v>5398.736727668377</v>
+        <v>5398.736727668378</v>
       </c>
       <c r="O4" t="n">
         <v>5398.736727668378</v>
@@ -26478,16 +26478,16 @@
         <v>40368.52827033812</v>
       </c>
       <c r="E5" t="n">
-        <v>14584.67227300613</v>
+        <v>14584.67227300612</v>
       </c>
       <c r="F5" t="n">
-        <v>14584.67227300613</v>
+        <v>14584.67227300612</v>
       </c>
       <c r="G5" t="n">
-        <v>14584.67227300613</v>
+        <v>14584.67227300612</v>
       </c>
       <c r="H5" t="n">
-        <v>14584.67227300613</v>
+        <v>14584.67227300612</v>
       </c>
       <c r="I5" t="n">
         <v>16448.87506552391</v>
@@ -26521,49 +26521,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-178610.4405739042</v>
+        <v>-196106.8488803037</v>
       </c>
       <c r="C6" t="n">
-        <v>64557.22567502785</v>
+        <v>47487.32710674651</v>
       </c>
       <c r="D6" t="n">
-        <v>95305.2900301308</v>
+        <v>78235.39146184945</v>
       </c>
       <c r="E6" t="n">
-        <v>20776.33403318563</v>
+        <v>5759.388601847793</v>
       </c>
       <c r="F6" t="n">
-        <v>164883.5997542599</v>
+        <v>149866.6543229219</v>
       </c>
       <c r="G6" t="n">
-        <v>164883.5997542599</v>
+        <v>149866.654322922</v>
       </c>
       <c r="H6" t="n">
-        <v>164883.5997542599</v>
+        <v>149866.6543229219</v>
       </c>
       <c r="I6" t="n">
-        <v>159259.1104595556</v>
+        <v>144487.8978014691</v>
       </c>
       <c r="J6" t="n">
-        <v>167412.5754396398</v>
+        <v>152641.3627815534</v>
       </c>
       <c r="K6" t="n">
-        <v>167412.5754396399</v>
+        <v>152641.3627815534</v>
       </c>
       <c r="L6" t="n">
-        <v>167412.5754396399</v>
+        <v>152641.3627815533</v>
       </c>
       <c r="M6" t="n">
-        <v>153923.6314761137</v>
+        <v>138906.6860447757</v>
       </c>
       <c r="N6" t="n">
-        <v>164883.5997542599</v>
+        <v>149866.6543229219</v>
       </c>
       <c r="O6" t="n">
-        <v>164883.5997542598</v>
+        <v>149866.654322922</v>
       </c>
       <c r="P6" t="n">
-        <v>164883.5997542598</v>
+        <v>149866.654322922</v>
       </c>
     </row>
   </sheetData>
@@ -26798,16 +26798,16 @@
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>74.64113527061559</v>
+        <v>74.64113527061548</v>
       </c>
       <c r="F4" t="n">
-        <v>74.64113527061559</v>
+        <v>74.64113527061548</v>
       </c>
       <c r="G4" t="n">
-        <v>74.64113527061559</v>
+        <v>74.64113527061548</v>
       </c>
       <c r="H4" t="n">
-        <v>74.64113527061559</v>
+        <v>74.64113527061548</v>
       </c>
       <c r="I4" t="n">
         <v>105.3023654107106</v>
@@ -27020,7 +27020,7 @@
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>74.64113527061559</v>
+        <v>74.64113527061548</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
@@ -27032,7 +27032,7 @@
         <v>0</v>
       </c>
       <c r="I4" t="n">
-        <v>30.66123014009529</v>
+        <v>30.66123014009514</v>
       </c>
       <c r="J4" t="n">
         <v>0</v>
@@ -27044,7 +27044,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>43.97990513052044</v>
+        <v>43.97990513052034</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27266,7 +27266,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>74.64113527061559</v>
+        <v>74.64113527061548</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -31627,7 +31627,7 @@
         <v>84.90045714900501</v>
       </c>
       <c r="R9" t="n">
-        <v>41.295040935999</v>
+        <v>41.29504093599901</v>
       </c>
       <c r="S9" t="n">
         <v>12.35409002288469</v>
@@ -31673,10 +31673,10 @@
         <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>0.5576042335217277</v>
+        <v>0.5576042335217276</v>
       </c>
       <c r="H10" t="n">
-        <v>4.957608548947729</v>
+        <v>4.957608548947728</v>
       </c>
       <c r="I10" t="n">
         <v>16.76868004081705</v>
@@ -31697,7 +31697,7 @@
         <v>85.32865511701135</v>
       </c>
       <c r="O10" t="n">
-        <v>78.81482384359842</v>
+        <v>78.8148238435984</v>
       </c>
       <c r="P10" t="n">
         <v>67.43969747975511</v>
@@ -31709,7 +31709,7 @@
         <v>25.07191399089513</v>
       </c>
       <c r="S10" t="n">
-        <v>9.717521051465013</v>
+        <v>9.717521051465015</v>
       </c>
       <c r="T10" t="n">
         <v>2.382490815956472</v>
@@ -35418,13 +35418,13 @@
         <v>56.14657251492781</v>
       </c>
       <c r="M11" t="n">
-        <v>74.64113527061559</v>
+        <v>74.64113527061548</v>
       </c>
       <c r="N11" t="n">
-        <v>74.64113527061559</v>
+        <v>74.64113527061548</v>
       </c>
       <c r="O11" t="n">
-        <v>74.64113527061559</v>
+        <v>74.64113527061548</v>
       </c>
       <c r="P11" t="n">
         <v>11.90368096992279</v>
@@ -35491,22 +35491,22 @@
         <v>0</v>
       </c>
       <c r="K12" t="n">
-        <v>27.23435716566473</v>
+        <v>0</v>
       </c>
       <c r="L12" t="n">
-        <v>12.59338231193809</v>
+        <v>74.64113527061548</v>
       </c>
       <c r="M12" t="n">
-        <v>43.29125660286562</v>
+        <v>74.64113527061548</v>
       </c>
       <c r="N12" t="n">
         <v>65.7225455189795</v>
       </c>
       <c r="O12" t="n">
-        <v>72.06606076712146</v>
+        <v>74.64113527061548</v>
       </c>
       <c r="P12" t="n">
-        <v>74.64113527061559</v>
+        <v>5.902786306358617</v>
       </c>
       <c r="Q12" t="n">
         <v>0</v>
@@ -35655,13 +35655,13 @@
         <v>56.14657251492781</v>
       </c>
       <c r="M14" t="n">
-        <v>74.64113527061559</v>
+        <v>74.64113527061548</v>
       </c>
       <c r="N14" t="n">
-        <v>74.64113527061559</v>
+        <v>74.64113527061548</v>
       </c>
       <c r="O14" t="n">
-        <v>74.64113527061559</v>
+        <v>74.64113527061548</v>
       </c>
       <c r="P14" t="n">
         <v>11.90368096992279</v>
@@ -35728,19 +35728,19 @@
         <v>0</v>
       </c>
       <c r="K15" t="n">
-        <v>27.23435716566473</v>
+        <v>0</v>
       </c>
       <c r="L15" t="n">
-        <v>53.30956441130957</v>
+        <v>74.64113527061548</v>
       </c>
       <c r="M15" t="n">
-        <v>74.64113527061559</v>
+        <v>74.64113527061548</v>
       </c>
       <c r="N15" t="n">
-        <v>65.7225455189795</v>
+        <v>71.62533182533811</v>
       </c>
       <c r="O15" t="n">
-        <v>74.64113527061559</v>
+        <v>74.64113527061548</v>
       </c>
       <c r="P15" t="n">
         <v>0</v>
@@ -35892,13 +35892,13 @@
         <v>56.14657251492781</v>
       </c>
       <c r="M17" t="n">
-        <v>74.64113527061559</v>
+        <v>74.64113527061548</v>
       </c>
       <c r="N17" t="n">
-        <v>74.64113527061559</v>
+        <v>74.64113527061548</v>
       </c>
       <c r="O17" t="n">
-        <v>74.64113527061559</v>
+        <v>74.64113527061548</v>
       </c>
       <c r="P17" t="n">
         <v>11.90368096992279</v>
@@ -35968,19 +35968,19 @@
         <v>27.23435716566473</v>
       </c>
       <c r="L18" t="n">
-        <v>74.64113527061559</v>
+        <v>74.64113527061548</v>
       </c>
       <c r="M18" t="n">
-        <v>53.30956441130957</v>
+        <v>74.64113527061548</v>
       </c>
       <c r="N18" t="n">
-        <v>65.7225455189795</v>
+        <v>74.64113527061548</v>
       </c>
       <c r="O18" t="n">
-        <v>74.64113527061559</v>
+        <v>27.29859175577218</v>
       </c>
       <c r="P18" t="n">
-        <v>0</v>
+        <v>17.0923829039012</v>
       </c>
       <c r="Q18" t="n">
         <v>0</v>
@@ -36129,13 +36129,13 @@
         <v>56.14657251492781</v>
       </c>
       <c r="M20" t="n">
-        <v>74.64113527061559</v>
+        <v>74.64113527061548</v>
       </c>
       <c r="N20" t="n">
-        <v>74.64113527061559</v>
+        <v>74.64113527061548</v>
       </c>
       <c r="O20" t="n">
-        <v>74.64113527061559</v>
+        <v>74.64113527061548</v>
       </c>
       <c r="P20" t="n">
         <v>11.90368096992279</v>
@@ -36202,22 +36202,22 @@
         <v>0</v>
       </c>
       <c r="K21" t="n">
-        <v>27.23435716566473</v>
+        <v>0</v>
       </c>
       <c r="L21" t="n">
-        <v>74.64113527061559</v>
+        <v>12.59338231193809</v>
       </c>
       <c r="M21" t="n">
-        <v>74.64113527061559</v>
+        <v>67.95053926503599</v>
       </c>
       <c r="N21" t="n">
         <v>65.7225455189795</v>
       </c>
       <c r="O21" t="n">
-        <v>53.30956441130956</v>
+        <v>74.64113527061548</v>
       </c>
       <c r="P21" t="n">
-        <v>0</v>
+        <v>74.64113527061548</v>
       </c>
       <c r="Q21" t="n">
         <v>0</v>
@@ -36445,13 +36445,13 @@
         <v>105.3023654107106</v>
       </c>
       <c r="M24" t="n">
-        <v>43.29125660286562</v>
+        <v>105.3023654107106</v>
       </c>
       <c r="N24" t="n">
-        <v>105.3023654107106</v>
+        <v>75.66750595228841</v>
       </c>
       <c r="O24" t="n">
-        <v>59.67484110519493</v>
+        <v>27.29859175577218</v>
       </c>
       <c r="P24" t="n">
         <v>76.14963492100055</v>
@@ -36682,16 +36682,16 @@
         <v>105.3023654107106</v>
       </c>
       <c r="M27" t="n">
-        <v>75.66750595228841</v>
+        <v>105.3023654107106</v>
       </c>
       <c r="N27" t="n">
+        <v>73.81336721835054</v>
+      </c>
+      <c r="O27" t="n">
         <v>105.3023654107106</v>
       </c>
-      <c r="O27" t="n">
-        <v>27.29859175577218</v>
-      </c>
       <c r="P27" t="n">
-        <v>76.14963492100055</v>
+        <v>0</v>
       </c>
       <c r="Q27" t="n">
         <v>0</v>
@@ -36916,19 +36916,19 @@
         <v>27.23435716566473</v>
       </c>
       <c r="L30" t="n">
-        <v>59.67484110519497</v>
+        <v>105.3023654107106</v>
       </c>
       <c r="M30" t="n">
-        <v>43.29125660286562</v>
+        <v>105.3023654107106</v>
       </c>
       <c r="N30" t="n">
-        <v>105.3023654107106</v>
+        <v>73.81336721835054</v>
       </c>
       <c r="O30" t="n">
         <v>105.3023654107106</v>
       </c>
       <c r="P30" t="n">
-        <v>76.14963492100055</v>
+        <v>0</v>
       </c>
       <c r="Q30" t="n">
         <v>0</v>
@@ -37156,16 +37156,16 @@
         <v>105.3023654107106</v>
       </c>
       <c r="M33" t="n">
+        <v>43.29125660286562</v>
+      </c>
+      <c r="N33" t="n">
         <v>105.3023654107106</v>
       </c>
-      <c r="N33" t="n">
-        <v>75.66750595228841</v>
-      </c>
       <c r="O33" t="n">
-        <v>27.29859175577218</v>
+        <v>105.3023654107106</v>
       </c>
       <c r="P33" t="n">
-        <v>76.14963492100055</v>
+        <v>30.52211061548488</v>
       </c>
       <c r="Q33" t="n">
         <v>0</v>
@@ -37387,13 +37387,13 @@
         <v>0</v>
       </c>
       <c r="K36" t="n">
-        <v>27.23435716566473</v>
+        <v>0</v>
       </c>
       <c r="L36" t="n">
-        <v>57.36085132328702</v>
+        <v>53.2453298212019</v>
       </c>
       <c r="M36" t="n">
-        <v>43.29125660286562</v>
+        <v>74.64113527061548</v>
       </c>
       <c r="N36" t="n">
         <v>65.7225455189795</v>
@@ -37624,10 +37624,10 @@
         <v>0</v>
       </c>
       <c r="K39" t="n">
-        <v>27.23435716566473</v>
+        <v>0</v>
       </c>
       <c r="L39" t="n">
-        <v>12.59338231193809</v>
+        <v>74.64113527061548</v>
       </c>
       <c r="M39" t="n">
         <v>74.64113527061548</v>
@@ -37636,10 +37636,10 @@
         <v>74.64113527061548</v>
       </c>
       <c r="O39" t="n">
-        <v>31.79759234773528</v>
+        <v>71.62533182533811</v>
       </c>
       <c r="P39" t="n">
-        <v>74.64113527061548</v>
+        <v>0</v>
       </c>
       <c r="Q39" t="n">
         <v>0</v>
@@ -37861,22 +37861,22 @@
         <v>0</v>
       </c>
       <c r="K42" t="n">
-        <v>0</v>
+        <v>27.23435716566473</v>
       </c>
       <c r="L42" t="n">
         <v>74.64113527061548</v>
       </c>
       <c r="M42" t="n">
-        <v>53.24532982120191</v>
+        <v>74.64113527061548</v>
       </c>
       <c r="N42" t="n">
-        <v>65.7225455189795</v>
+        <v>74.64113527061548</v>
       </c>
       <c r="O42" t="n">
-        <v>27.29859175577218</v>
+        <v>44.39097465967338</v>
       </c>
       <c r="P42" t="n">
-        <v>74.64113527061548</v>
+        <v>0</v>
       </c>
       <c r="Q42" t="n">
         <v>0</v>
@@ -38101,19 +38101,19 @@
         <v>27.23435716566473</v>
       </c>
       <c r="L45" t="n">
+        <v>12.59338231193809</v>
+      </c>
+      <c r="M45" t="n">
         <v>74.64113527061548</v>
-      </c>
-      <c r="M45" t="n">
-        <v>53.30956441130936</v>
       </c>
       <c r="N45" t="n">
         <v>65.7225455189795</v>
       </c>
       <c r="O45" t="n">
+        <v>40.71618209937126</v>
+      </c>
+      <c r="P45" t="n">
         <v>74.64113527061548</v>
-      </c>
-      <c r="P45" t="n">
-        <v>0</v>
       </c>
       <c r="Q45" t="n">
         <v>0</v>
